--- a/config/cfg_template.xlsx
+++ b/config/cfg_template.xlsx
@@ -4,18 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26880" windowHeight="10560"/>
+    <workbookView windowWidth="30240" windowHeight="13600" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="JSBG_7_PH-(表层样点土壤PH分级统计表)" sheetId="1" r:id="rId1"/>
     <sheet name="JSBG_7_SOM-(表层样点土壤SOM分级统计表)" sheetId="2" r:id="rId2"/>
+    <sheet name="JSBG_7_TN-(表层样点土壤TN分级统计表)" sheetId="3" r:id="rId3"/>
+    <sheet name="JSBG_7_TP-(表层样点土壤TP分级统计表)" sheetId="4" r:id="rId4"/>
+    <sheet name="JSBG_7_TK-(表层样点土壤TK分级统计表)" sheetId="5" r:id="rId5"/>
+    <sheet name="JSBG_7_AP-(表层样点土壤AP分级统计表)" sheetId="6" r:id="rId6"/>
+    <sheet name="JSBG_7_AK-(表层样点土壤AK分级统计表)" sheetId="7" r:id="rId7"/>
+    <sheet name="JSBG_7_AS1-(表层样点土壤AS1分级统计表)" sheetId="8" r:id="rId8"/>
+    <sheet name="JSBG_7_AFE-(表层样点土壤AFE分级统计表)" sheetId="9" r:id="rId9"/>
+    <sheet name="JSBG_7_AMN-(表层样点土壤AMN分级统计表)" sheetId="11" r:id="rId10"/>
+    <sheet name="JSBG_7_ACU-(表层样点土壤ACU分级统计表)" sheetId="12" r:id="rId11"/>
+    <sheet name="JSBG_7_AZN-(表层样点土壤AZN分级统计表)" sheetId="13" r:id="rId12"/>
+    <sheet name="JSBG_7_AB-(表层样点土壤AB分级统计表)" sheetId="14" r:id="rId13"/>
+    <sheet name="JSBG_7_AMO-(表层样点土壤AMO分级统计表)" sheetId="15" r:id="rId14"/>
+    <sheet name="JSBG_7_GZCHD-(表层样点土壤GZCHD分级统计表)" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="87">
   <si>
     <t>A1</t>
   </si>
@@ -81,12 +94,207 @@
   </si>
   <si>
     <t>≤10.00</t>
+  </si>
+  <si>
+    <t>TN分级</t>
+  </si>
+  <si>
+    <t>&gt;2.00</t>
+  </si>
+  <si>
+    <t>1.50-2.00</t>
+  </si>
+  <si>
+    <t>1.00-1.50</t>
+  </si>
+  <si>
+    <t>0.75-1.00</t>
+  </si>
+  <si>
+    <t>≤0.75</t>
+  </si>
+  <si>
+    <t>TP分级</t>
+  </si>
+  <si>
+    <t>&gt;1.00</t>
+  </si>
+  <si>
+    <t>0.80-1.00</t>
+  </si>
+  <si>
+    <t>0.60-0.80</t>
+  </si>
+  <si>
+    <t>0.40-0.60</t>
+  </si>
+  <si>
+    <t>≤0.40</t>
+  </si>
+  <si>
+    <t>TK分级</t>
+  </si>
+  <si>
+    <t>&gt;25.00</t>
+  </si>
+  <si>
+    <t>20.00-25.00</t>
+  </si>
+  <si>
+    <t>15.00-20.00</t>
+  </si>
+  <si>
+    <t>AP分级</t>
+  </si>
+  <si>
+    <t>AK分级</t>
+  </si>
+  <si>
+    <t>&gt;150</t>
+  </si>
+  <si>
+    <t>125-150</t>
+  </si>
+  <si>
+    <t>100-125</t>
+  </si>
+  <si>
+    <t>75-100</t>
+  </si>
+  <si>
+    <t>≤75</t>
+  </si>
+  <si>
+    <t>AS1分级</t>
+  </si>
+  <si>
+    <t>&gt;40.00</t>
+  </si>
+  <si>
+    <t>30.00-40.00</t>
+  </si>
+  <si>
+    <t>20.00-30.00</t>
+  </si>
+  <si>
+    <t>10.00-20.00</t>
+  </si>
+  <si>
+    <t>AFE分级</t>
+  </si>
+  <si>
+    <t>&gt;20.00</t>
+  </si>
+  <si>
+    <t>4.50-10.00</t>
+  </si>
+  <si>
+    <t>2.50-4.50</t>
+  </si>
+  <si>
+    <t>≤2.50</t>
+  </si>
+  <si>
+    <t>AMN分级</t>
+  </si>
+  <si>
+    <t>&gt;50.00</t>
+  </si>
+  <si>
+    <t>15.00-50.00</t>
+  </si>
+  <si>
+    <t>7.00-15.00</t>
+  </si>
+  <si>
+    <t>3.00-7.00</t>
+  </si>
+  <si>
+    <t>≤3.00</t>
+  </si>
+  <si>
+    <t>ACU分级</t>
+  </si>
+  <si>
+    <t>&gt;1.80</t>
+  </si>
+  <si>
+    <t>1.00-1.80</t>
+  </si>
+  <si>
+    <t>0.20-1.00</t>
+  </si>
+  <si>
+    <t>0.10-0.20</t>
+  </si>
+  <si>
+    <t>≤0.10</t>
+  </si>
+  <si>
+    <t>AZN分级</t>
+  </si>
+  <si>
+    <t>&gt;3.00</t>
+  </si>
+  <si>
+    <t>2.00-3.00</t>
+  </si>
+  <si>
+    <t>1.00-2.00</t>
+  </si>
+  <si>
+    <t>0.50-1.00</t>
+  </si>
+  <si>
+    <t>≤0.50</t>
+  </si>
+  <si>
+    <t>AB分级</t>
+  </si>
+  <si>
+    <t>0.25-0.50</t>
+  </si>
+  <si>
+    <t>≤0.25</t>
+  </si>
+  <si>
+    <t>AMO分级</t>
+  </si>
+  <si>
+    <t>&gt;0.20</t>
+  </si>
+  <si>
+    <t>0.15-0.20</t>
+  </si>
+  <si>
+    <t>0.10-0.15</t>
+  </si>
+  <si>
+    <t>0.05-0.10</t>
+  </si>
+  <si>
+    <t>≤0.05</t>
+  </si>
+  <si>
+    <t>GZCHD分级</t>
+  </si>
+  <si>
+    <t>16.00-20.00</t>
+  </si>
+  <si>
+    <t>12.00-16.00</t>
+  </si>
+  <si>
+    <t>8.00-12.00</t>
+  </si>
+  <si>
+    <t>≤8.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -736,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,9 +962,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1285,7 +1490,7 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1296,15 +1501,15 @@
     <col min="6" max="6" width="11.2307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="17.6" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -1346,7 +1551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" ht="17" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1371,7 +1576,7 @@
         <v>F4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" ht="17" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1396,7 +1601,7 @@
         <v>F5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" ht="17" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1418,6 +1623,879 @@
       </c>
       <c r="F6" s="5" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>F6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="34" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:F4" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B4</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>D4</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>E4</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" ref="B5:F5" si="1">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B5</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>D5</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>E5</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" ref="B6:F6" si="2">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B6</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D6</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>E6</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>F6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="34" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:F4" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B4</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>D4</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>E4</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" ref="B5:F5" si="1">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B5</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>D5</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>E5</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" ref="B6:F6" si="2">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B6</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D6</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>E6</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>F6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="34" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:F4" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B4</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>D4</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>E4</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" ref="B5:F5" si="1">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B5</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>D5</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>E5</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" ref="B6:F6" si="2">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B6</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D6</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>E6</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>F6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="34" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:F4" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B4</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>D4</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>E4</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" ref="B5:F5" si="1">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B5</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>D5</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>E5</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" ref="B6:F6" si="2">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B6</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D6</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>E6</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>F6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="34" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:F4" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B4</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>D4</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>E4</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" ref="B5:F5" si="1">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B5</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>D5</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>E5</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" ref="B6:F6" si="2">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B6</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D6</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>E6</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>F6</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8">
+      <c r="H14" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="34" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:F4" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B4</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>D4</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>E4</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" ref="B5:F5" si="1">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B5</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>D5</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>E5</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" ref="B6:F6" si="2">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B6</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D6</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>E6</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>F6</v>
       </c>
     </row>
@@ -1436,7 +2514,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B2" sqref="B2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1447,7 +2525,7 @@
     <col min="6" max="6" width="8.92307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="17.6" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +2575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" ht="17" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1522,7 +2600,7 @@
         <v>F4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" ht="17" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1547,7 +2625,7 @@
         <v>F5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" ht="17" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1569,6 +2647,1021 @@
       </c>
       <c r="F6" s="5" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>F6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="34" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:F4" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B4</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>D4</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>E4</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" ref="B5:F5" si="1">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B5</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>D5</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>E5</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" ref="B6:F6" si="2">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B6</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D6</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>E6</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>F6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="34" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:F4" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B4</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>D4</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>E4</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" ref="B5:F5" si="1">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B5</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>D5</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>E5</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" ref="B6:F6" si="2">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B6</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D6</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>E6</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>F6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="34" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:F4" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B4</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>D4</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>E4</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" ref="B5:F5" si="1">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B5</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>D5</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>E5</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" ref="B6:F6" si="2">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B6</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D6</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>E6</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>F6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="34" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:F4" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B4</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>D4</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>E4</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" ref="B5:F5" si="1">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B5</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>D5</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>E5</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" ref="B6:F6" si="2">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B6</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D6</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>E6</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>F6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="34" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:F4" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B4</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>D4</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>E4</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" ref="B5:F5" si="1">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B5</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>D5</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>E5</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" ref="B6:F6" si="2">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B6</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D6</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>E6</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>F6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="34" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:F4" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B4</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>D4</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>E4</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" ref="B5:F5" si="1">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B5</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>D5</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>E5</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" ref="B6:F6" si="2">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B6</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D6</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>E6</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>F6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" ht="17.6" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="34" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f t="shared" ref="B4:F4" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B4</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>C4</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>D4</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>E4</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" ref="B5:F5" si="1">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B5</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>C5</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>D5</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>E5</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="str">
+        <f t="shared" ref="B6:F6" si="2">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B6</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>D6</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>E6</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>F6</v>
       </c>
     </row>

--- a/config/cfg_template.xlsx
+++ b/config/cfg_template.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26880" windowHeight="10560"/>
+    <workbookView windowWidth="25600" windowHeight="9560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JSBG_7_PH-(表层样点土壤PH分级统计表)" sheetId="1" r:id="rId1"/>
-    <sheet name="JSBG_7_SOM-(表层样点土壤SOM分级统计表)" sheetId="2" r:id="rId2"/>
+    <sheet name="JSBG_8_OM-(表层样点土壤OM分级统计表)" sheetId="2" r:id="rId2"/>
+    <sheet name="TRSX_111_PH-(土地利用类型土壤pH分级面积统计表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>A1</t>
   </si>
@@ -41,6 +42,27 @@
     <t>级别范围</t>
   </si>
   <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>均值</t>
+  </si>
+  <si>
+    <t>计数（个）</t>
+  </si>
+  <si>
+    <t>占比</t>
+  </si>
+  <si>
+    <t>SOM分级</t>
+  </si>
+  <si>
+    <t>XX县土地利用类型土壤pH分级面积统计表</t>
+  </si>
+  <si>
+    <t>土地利用类型</t>
+  </si>
+  <si>
     <t>6.5-7.5</t>
   </si>
   <si>
@@ -56,31 +78,19 @@
     <t>&gt;8.5, ≤4.5</t>
   </si>
   <si>
-    <t>均值</t>
-  </si>
-  <si>
-    <t>计数（个）</t>
-  </si>
-  <si>
-    <t>占比</t>
-  </si>
-  <si>
-    <t>SOM分级</t>
-  </si>
-  <si>
-    <t>&gt;35.00</t>
-  </si>
-  <si>
-    <t>25.00-35.00</t>
-  </si>
-  <si>
-    <t>15.00-25.00</t>
-  </si>
-  <si>
-    <t>10.00-15.00</t>
-  </si>
-  <si>
-    <t>≤10.00</t>
+    <t>耕地</t>
+  </si>
+  <si>
+    <t>园地</t>
+  </si>
+  <si>
+    <t>林地</t>
+  </si>
+  <si>
+    <t>草地</t>
+  </si>
+  <si>
+    <t>合计</t>
   </si>
 </sst>
 </file>
@@ -109,18 +119,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -465,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -483,6 +493,32 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -612,7 +648,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,34 +660,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,27 +772,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1285,8 +1330,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1307,7 +1352,7 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1327,99 +1372,55 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="9" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B4</v>
       </c>
-      <c r="C4" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>C4</v>
-      </c>
-      <c r="D4" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>D4</v>
-      </c>
-      <c r="E4" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>E4</v>
-      </c>
-      <c r="F4" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>F4</v>
-      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="str">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B5</v>
       </c>
-      <c r="C5" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>C5</v>
-      </c>
-      <c r="D5" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>D5</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>E5</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>F5</v>
-      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="str">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B6</v>
       </c>
-      <c r="C6" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>C6</v>
-      </c>
-      <c r="D6" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>D6</v>
-      </c>
-      <c r="E6" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>E6</v>
-      </c>
-      <c r="F6" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>F6</v>
-      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1435,8 +1436,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1448,18 +1449,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
+      <c r="A2" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1478,99 +1479,55 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="str">
+        <f t="shared" ref="B4:B6" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B4</v>
       </c>
-      <c r="C4" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>C4</v>
-      </c>
-      <c r="D4" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>D4</v>
-      </c>
-      <c r="E4" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>E4</v>
-      </c>
-      <c r="F4" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>F4</v>
-      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>B5</v>
       </c>
-      <c r="C5" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>C5</v>
-      </c>
-      <c r="D5" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>D5</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>E5</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>F5</v>
-      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9" t="str">
+        <f t="shared" si="0"/>
         <v>B6</v>
       </c>
-      <c r="C6" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>C6</v>
-      </c>
-      <c r="D6" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>D6</v>
-      </c>
-      <c r="E6" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>E6</v>
-      </c>
-      <c r="F6" s="5" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>F6</v>
-      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1579,4 +1536,128 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.6153846153846" customWidth="1"/>
+    <col min="2" max="5" width="8.07692307692308" customWidth="1"/>
+    <col min="6" max="6" width="11.2307692307692" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/config/cfg_template.xlsx
+++ b/config/cfg_template.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9560" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="9560" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
-    <sheet name="JSBG_7_PH-(表层样点土壤PH分级统计表)" sheetId="1" r:id="rId1"/>
-    <sheet name="JSBG_8_OM-(表层样点土壤OM分级统计表)" sheetId="2" r:id="rId2"/>
-    <sheet name="TRSX_111_PH-(土地利用类型土壤pH分级面积统计表" sheetId="3" r:id="rId3"/>
+    <sheet name="JSBG_7_PH-(表层样PH分级)" sheetId="1" r:id="rId1"/>
+    <sheet name="JSBG_10_OM-(表层样OM分级)" sheetId="2" r:id="rId2"/>
+    <sheet name="JSBG_16_TN-(表层样TN分级)" sheetId="5" r:id="rId3"/>
+    <sheet name="JSBG_19_TP-(表层样TP分级)" sheetId="6" r:id="rId4"/>
+    <sheet name="JSBG_22_TK-(表层样TK分级)" sheetId="7" r:id="rId5"/>
+    <sheet name="JSBG_25_AP-(表层样AP分级)" sheetId="8" r:id="rId6"/>
+    <sheet name="JSBG_28_AK-(表层样AK分级)" sheetId="9" r:id="rId7"/>
+    <sheet name="JSBG_31_AS1-(表层样AS1分级)" sheetId="10" r:id="rId8"/>
+    <sheet name="JSBG_34_AFE-(表层样AFE分级)" sheetId="11" r:id="rId9"/>
+    <sheet name="JSBG_37_AMN-(表层样AMN分级)" sheetId="12" r:id="rId10"/>
+    <sheet name="JSBG_40_ACU-(表层样ACU分级)" sheetId="13" r:id="rId11"/>
+    <sheet name="JSBG_43_AZN-(表层样AZN分级)" sheetId="14" r:id="rId12"/>
+    <sheet name="JSBG_46_AB-(表层样AB分级)" sheetId="4" r:id="rId13"/>
+    <sheet name="JSBG_49_AMO-(表层样AMO分级)" sheetId="15" r:id="rId14"/>
+    <sheet name="JSBG_53_GZCHD-(表层样GZCHD分级)" sheetId="16" r:id="rId15"/>
+    <sheet name="TRSX_111_PH-(利用类型pH面积分级)" sheetId="3" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="108">
   <si>
     <t>A1</t>
   </si>
@@ -55,6 +68,255 @@
   </si>
   <si>
     <t>SOM分级</t>
+  </si>
+  <si>
+    <t>XX县表层样点土壤全氮含量分级统计表</t>
+  </si>
+  <si>
+    <t>TN分级</t>
+  </si>
+  <si>
+    <t>&gt;2.00</t>
+  </si>
+  <si>
+    <t>1.50-2.00</t>
+  </si>
+  <si>
+    <t>1.00-1.50</t>
+  </si>
+  <si>
+    <t>0.75-1.00</t>
+  </si>
+  <si>
+    <t>≤0.75</t>
+  </si>
+  <si>
+    <t>XX县表层样点土壤全磷含量分级统计表</t>
+  </si>
+  <si>
+    <t>TP分级</t>
+  </si>
+  <si>
+    <t>&gt;1.00</t>
+  </si>
+  <si>
+    <t>0.80-1.00</t>
+  </si>
+  <si>
+    <t>0.60-0.80</t>
+  </si>
+  <si>
+    <t>0.40-0.60</t>
+  </si>
+  <si>
+    <t>≤0.40</t>
+  </si>
+  <si>
+    <t>XX县表层样点土壤全钾含量分级统计表</t>
+  </si>
+  <si>
+    <t>TK分级</t>
+  </si>
+  <si>
+    <t>&gt;25.00</t>
+  </si>
+  <si>
+    <t>20.00-25.00</t>
+  </si>
+  <si>
+    <t>15.00-20.00</t>
+  </si>
+  <si>
+    <t>10.00-15.00</t>
+  </si>
+  <si>
+    <t>≤10.00</t>
+  </si>
+  <si>
+    <t>XX县表层样点土壤有效磷含量分级统计表</t>
+  </si>
+  <si>
+    <t>AP分级</t>
+  </si>
+  <si>
+    <t>&gt;35.00</t>
+  </si>
+  <si>
+    <t>25.00-35.00</t>
+  </si>
+  <si>
+    <t>15.00-25.00</t>
+  </si>
+  <si>
+    <t>XX县表层样点土壤速效钾含量分级统计表</t>
+  </si>
+  <si>
+    <t>AK分级</t>
+  </si>
+  <si>
+    <t>&gt;150</t>
+  </si>
+  <si>
+    <t>125~150</t>
+  </si>
+  <si>
+    <t>100~125</t>
+  </si>
+  <si>
+    <t>75~100</t>
+  </si>
+  <si>
+    <t>≤75</t>
+  </si>
+  <si>
+    <t>XX县表层样点土壤有效硫含量分级统计表</t>
+  </si>
+  <si>
+    <t>有效硫分级</t>
+  </si>
+  <si>
+    <t>&gt;40.00</t>
+  </si>
+  <si>
+    <t>30.00-40.00</t>
+  </si>
+  <si>
+    <t>20.00-30.00</t>
+  </si>
+  <si>
+    <t>10.00-20.00</t>
+  </si>
+  <si>
+    <t>XX县表层样点土壤有效铁含量分级统计表</t>
+  </si>
+  <si>
+    <t>有效铁分级</t>
+  </si>
+  <si>
+    <t>&gt;20.00</t>
+  </si>
+  <si>
+    <t>4.50-10.00</t>
+  </si>
+  <si>
+    <t>2.50-4.50</t>
+  </si>
+  <si>
+    <t>≤2.50</t>
+  </si>
+  <si>
+    <t>XX县表层样点土壤有效锰含量分级统计表</t>
+  </si>
+  <si>
+    <t>有效锰分级</t>
+  </si>
+  <si>
+    <t>&gt;50.00</t>
+  </si>
+  <si>
+    <t>15.00-50.00</t>
+  </si>
+  <si>
+    <t>7.00-15.00</t>
+  </si>
+  <si>
+    <t>3.00-7.00</t>
+  </si>
+  <si>
+    <t>≤3.00</t>
+  </si>
+  <si>
+    <t>XX县表层样点土壤有效铜含量分级统计表</t>
+  </si>
+  <si>
+    <t>有效铜分级</t>
+  </si>
+  <si>
+    <t>&gt;1.80</t>
+  </si>
+  <si>
+    <t>1.00-1.80</t>
+  </si>
+  <si>
+    <t>0.20-1.00</t>
+  </si>
+  <si>
+    <t>0.10-0.20</t>
+  </si>
+  <si>
+    <t>≤0.10</t>
+  </si>
+  <si>
+    <t>XX县表层样点土壤有效锌含量分级统计表</t>
+  </si>
+  <si>
+    <t>有效锌分级</t>
+  </si>
+  <si>
+    <t>&gt;3.00</t>
+  </si>
+  <si>
+    <t>2.00-3.00</t>
+  </si>
+  <si>
+    <t>1.00-2.00</t>
+  </si>
+  <si>
+    <t>0.50-1.00</t>
+  </si>
+  <si>
+    <t>≤0.50</t>
+  </si>
+  <si>
+    <t>XX县表层样点土壤有效硼含量分级统计表</t>
+  </si>
+  <si>
+    <t>有效硼分级</t>
+  </si>
+  <si>
+    <t>0.25-0.50</t>
+  </si>
+  <si>
+    <t>≤0.25</t>
+  </si>
+  <si>
+    <t>XX县表层样点土壤有效钼含量分级统计表</t>
+  </si>
+  <si>
+    <t>有效钼分级</t>
+  </si>
+  <si>
+    <t>&gt;0.20</t>
+  </si>
+  <si>
+    <t>0.15-0.20</t>
+  </si>
+  <si>
+    <t>0.10-0.15</t>
+  </si>
+  <si>
+    <t>0.05-0.10</t>
+  </si>
+  <si>
+    <t>≤0.05</t>
+  </si>
+  <si>
+    <t>XX县表层样点耕层厚度分级统计表</t>
+  </si>
+  <si>
+    <t>耕层厚度分级</t>
+  </si>
+  <si>
+    <t>16.00-20.00</t>
+  </si>
+  <si>
+    <t>12.00-16.00</t>
+  </si>
+  <si>
+    <t>8.00-12.00</t>
+  </si>
+  <si>
+    <t>≤8.00</t>
   </si>
   <si>
     <t>XX县土地利用类型土壤pH分级面积统计表</t>
@@ -772,7 +1034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,10 +1053,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1342,17 +1610,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1372,7 +1640,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1384,47 +1652,771 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="str">
+      <c r="B4" s="11" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="str">
+      <c r="B5" s="11" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B5</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="str">
+      <c r="B6" s="11" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B6</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.6153846153846" customWidth="1"/>
+    <col min="2" max="5" width="8.07692307692308" customWidth="1"/>
+    <col min="6" max="6" width="11.2307692307692" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1436,8 +2428,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1449,17 +2441,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1479,7 +2471,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1491,43 +2483,43 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="str">
+      <c r="B4" s="11" t="str">
         <f t="shared" ref="B4:B6" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="str">
+      <c r="B5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>B5</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="str">
+      <c r="B6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>B6</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1541,18 +2533,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A1" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="13.6153846153846" customWidth="1"/>
-    <col min="2" max="5" width="8.07692307692308" customWidth="1"/>
-    <col min="6" max="6" width="11.2307692307692" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1565,7 +2552,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1585,77 +2572,658 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4"/>
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/config/cfg_template.xlsx
+++ b/config/cfg_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9560" firstSheet="14" activeTab="14"/>
+    <workbookView windowWidth="25600" windowHeight="9560" firstSheet="15" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="JSBG_7_PH-(表层样PH分级)" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="JSBG_49_AMO-(表层样AMO分级)" sheetId="15" r:id="rId14"/>
     <sheet name="JSBG_53_GZCHD-(表层样GZCHD分级)" sheetId="16" r:id="rId15"/>
     <sheet name="TRSX_111_PH-(利用类型pH面积分级)" sheetId="3" r:id="rId16"/>
+    <sheet name="TRSX_135_OM-(利用类型OM面积分级)" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="114">
   <si>
     <t>A1</t>
   </si>
@@ -353,6 +354,24 @@
   </si>
   <si>
     <t>合计</t>
+  </si>
+  <si>
+    <t>XX县土地利用类型土壤有机质含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>&gt; 35.0</t>
+  </si>
+  <si>
+    <t>25.0-35.0</t>
+  </si>
+  <si>
+    <t>15.0-25.0</t>
+  </si>
+  <si>
+    <t>10.0-15.0</t>
+  </si>
+  <si>
+    <t>≤10.0</t>
   </si>
 </sst>
 </file>
@@ -1034,24 +1053,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1610,85 +1635,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="str">
+      <c r="B4" s="13" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B4</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11" t="str">
+      <c r="B5" s="13" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B5</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11" t="str">
+      <c r="B6" s="13" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B6</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1721,74 +1746,74 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1821,74 +1846,74 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1921,74 +1946,74 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2021,74 +2046,74 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2121,74 +2146,74 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2204,7 +2229,7 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -2221,74 +2246,74 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2326,85 +2351,204 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>102</v>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="5"/>
@@ -2441,85 +2585,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="str">
+      <c r="B4" s="13" t="str">
         <f t="shared" ref="B4:B6" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B4</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11" t="str">
+      <c r="B5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>B5</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11" t="str">
+      <c r="B6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>B6</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2552,74 +2696,74 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2652,74 +2796,74 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2752,74 +2896,74 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2852,74 +2996,74 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2952,74 +3096,74 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3052,74 +3196,74 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3152,74 +3296,74 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/config/cfg_template.xlsx
+++ b/config/cfg_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9560" firstSheet="15" activeTab="16"/>
+    <workbookView windowWidth="25600" windowHeight="8240" firstSheet="20" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="JSBG_7_PH-(表层样PH分级)" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,54 @@
     <sheet name="JSBG_49_AMO-(表层样AMO分级)" sheetId="15" r:id="rId14"/>
     <sheet name="JSBG_53_GZCHD-(表层样GZCHD分级)" sheetId="16" r:id="rId15"/>
     <sheet name="TRSX_111_PH-(利用类型pH面积分级)" sheetId="3" r:id="rId16"/>
-    <sheet name="TRSX_135_OM-(利用类型OM面积分级)" sheetId="17" r:id="rId17"/>
+    <sheet name="TRSX_112_PH-(街道PH面积分级)" sheetId="18" r:id="rId17"/>
+    <sheet name="TRSX_113_PH-(土类PH面积分级)" sheetId="19" r:id="rId18"/>
+    <sheet name="TRSX_114_CEC-(利用类型ECE面积分级)" sheetId="20" r:id="rId19"/>
+    <sheet name="TRSX_115_CEC-(街道ECE面积分级)" sheetId="21" r:id="rId20"/>
+    <sheet name="TRSX_116_CEC-(土类ECE面积分级)" sheetId="22" r:id="rId21"/>
+    <sheet name="TRSX_117_TRRZPJZ-(利用类型容重面积分级)" sheetId="23" r:id="rId22"/>
+    <sheet name="TRSX_118_TRRZPJZ-(街道容重面积分级)" sheetId="24" r:id="rId23"/>
+    <sheet name="TRSX_119_TRRZPJZ-(土类容重面积分级)" sheetId="25" r:id="rId24"/>
+    <sheet name="TRSX_120_GZCHD" sheetId="26" r:id="rId25"/>
+    <sheet name="TRSX_121_GZCHD" sheetId="27" r:id="rId26"/>
+    <sheet name="TRSX_122_GZCHD" sheetId="28" r:id="rId27"/>
+    <sheet name="TRSX_123_TRZD" sheetId="29" r:id="rId28"/>
+    <sheet name="TRSX_124_TRZD" sheetId="30" r:id="rId29"/>
+    <sheet name="TRSX_125_TRZD" sheetId="31" r:id="rId30"/>
+    <sheet name="TRSX_126_TRSL" sheetId="32" r:id="rId31"/>
+    <sheet name="TRSX_127_TRSL" sheetId="33" r:id="rId32"/>
+    <sheet name="TRSX_128_TRSL" sheetId="34" r:id="rId33"/>
+    <sheet name="TRSX_129_TRFSL" sheetId="35" r:id="rId34"/>
+    <sheet name="TRSX_130_TRFSL" sheetId="36" r:id="rId35"/>
+    <sheet name="TRSX_131_TRFSL" sheetId="37" r:id="rId36"/>
+    <sheet name="TRSX_132_TRNL" sheetId="38" r:id="rId37"/>
+    <sheet name="TRSX_133_TRNL" sheetId="39" r:id="rId38"/>
+    <sheet name="TRSX_134_TRNL" sheetId="40" r:id="rId39"/>
+    <sheet name="TRSX_135_OM-(利用类型OM面积分级)" sheetId="17" r:id="rId40"/>
+    <sheet name="TRSX_136_OM" sheetId="41" r:id="rId41"/>
+    <sheet name="TRSX_137_OM" sheetId="42" r:id="rId42"/>
+    <sheet name="TRSX_138_TN" sheetId="43" r:id="rId43"/>
+    <sheet name="TRSX_139_TN" sheetId="44" r:id="rId44"/>
+    <sheet name="TRSX_140_TN" sheetId="45" r:id="rId45"/>
+    <sheet name="TRSX_141_TP" sheetId="46" r:id="rId46"/>
+    <sheet name="TRSX_142_TP" sheetId="47" r:id="rId47"/>
+    <sheet name="TRSX_143_TP" sheetId="48" r:id="rId48"/>
+    <sheet name="TRSX_144_TK" sheetId="49" r:id="rId49"/>
+    <sheet name="TRSX_145_TK" sheetId="50" r:id="rId50"/>
+    <sheet name="TRSX_146_TK" sheetId="51" r:id="rId51"/>
+    <sheet name="TRSX_147_AP" sheetId="52" r:id="rId52"/>
+    <sheet name="TRSX_148_AP" sheetId="53" r:id="rId53"/>
+    <sheet name="TRSX_149_AP" sheetId="54" r:id="rId54"/>
+    <sheet name="TRSX_150_AK" sheetId="55" r:id="rId55"/>
+    <sheet name="TRSX_151_AK" sheetId="56" r:id="rId56"/>
+    <sheet name="TRSX_152_AK" sheetId="57" r:id="rId57"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="191">
   <si>
     <t>A1</t>
   </si>
@@ -356,6 +396,169 @@
     <t>合计</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）土壤pH分级面积统计表</t>
+  </si>
+  <si>
+    <t>乡镇/街道</t>
+  </si>
+  <si>
+    <t>XX县不同土类土壤pH分级面积统计表</t>
+  </si>
+  <si>
+    <t>土类</t>
+  </si>
+  <si>
+    <t>XX县土地利用类型土壤阳离子交换量分级面积统计表</t>
+  </si>
+  <si>
+    <t>&gt;30.0</t>
+  </si>
+  <si>
+    <t>20.0-30.0</t>
+  </si>
+  <si>
+    <t>10.0-20.0</t>
+  </si>
+  <si>
+    <t>5.0-10.0</t>
+  </si>
+  <si>
+    <t>≤5.0</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）土壤阳离子交换量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县不同土类土壤阳离子交换量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县土地利用类型土壤容重分级面积统计表</t>
+  </si>
+  <si>
+    <t>1.00-1.20</t>
+  </si>
+  <si>
+    <t>1.20-1.30,
+0.90-1.00</t>
+  </si>
+  <si>
+    <t>1.30-1.40</t>
+  </si>
+  <si>
+    <t>1.40-1.50</t>
+  </si>
+  <si>
+    <t>&gt;1.50，≤0.90</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）土壤容重分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县不同土类土壤容重分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县土地利用类型土壤耕作层厚度分级面积统计表</t>
+  </si>
+  <si>
+    <t>&gt;20.0</t>
+  </si>
+  <si>
+    <t>16.0-20.0</t>
+  </si>
+  <si>
+    <t>12.0-16.0</t>
+  </si>
+  <si>
+    <t>8.0-12.0</t>
+  </si>
+  <si>
+    <t>≤8.0</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）土壤耕作层厚度分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县不同土类土壤耕作层厚度分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县土地利用类型土壤质地面积统计表</t>
+  </si>
+  <si>
+    <t>砂土</t>
+  </si>
+  <si>
+    <t>砂壤</t>
+  </si>
+  <si>
+    <t>轻壤</t>
+  </si>
+  <si>
+    <t>中壤</t>
+  </si>
+  <si>
+    <t>重壤</t>
+  </si>
+  <si>
+    <t>黏土</t>
+  </si>
+  <si>
+    <t>XX县乡镇（街道）土壤质地面积统计表</t>
+  </si>
+  <si>
+    <t>XX县不同土类土壤质地面积统计表</t>
+  </si>
+  <si>
+    <t>XX县土地利用类型土壤砂粒含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>30%~35%</t>
+  </si>
+  <si>
+    <t>35%~40%</t>
+  </si>
+  <si>
+    <t>40%~45%</t>
+  </si>
+  <si>
+    <t>45%~50%</t>
+  </si>
+  <si>
+    <t>&gt;50%</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）土壤砂粒含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县不同土类土壤砂粒含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县土地利用类型土壤粉砂粒含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>20%~25%</t>
+  </si>
+  <si>
+    <t>25%~30%</t>
+  </si>
+  <si>
+    <t>&gt;35%</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）土壤粉砂粒含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县不同土类土壤粉砂粒含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县土地利用类型土壤黏粒含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）土壤黏粒含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县土类土壤黏粒含量分级面积统计表</t>
+  </si>
+  <si>
     <t>XX县土地利用类型土壤有机质含量分级面积统计表</t>
   </si>
   <si>
@@ -372,6 +575,75 @@
   </si>
   <si>
     <t>≤10.0</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）土壤有机质含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县不同土类土壤有机质含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县土地利用类型土壤全氮含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>&gt;2.0</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）土壤全氮含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县不同土类土壤全氮含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县土地利用类型土壤全磷含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）土壤全磷含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县不同土类土壤全磷含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县土地利用类型土壤全钾含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>20.0~25.0</t>
+  </si>
+  <si>
+    <t>15.0~20.0</t>
+  </si>
+  <si>
+    <t>10.0~15.0</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）土壤全钾含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县不同土类土壤全钾含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县土地利用类型土壤有效磷含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>25.0~35.0</t>
+  </si>
+  <si>
+    <t>15.0~25.0</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）土壤有效磷含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县不同土类土壤有效磷含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县土地利用类型土壤速效钾含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县乡镇（街道）土壤速效钾含量分级面积统计表</t>
+  </si>
+  <si>
+    <t>XX县不同土类土壤速效钾含量分级面积统计表</t>
   </si>
 </sst>
 </file>
@@ -556,7 +828,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,6 +838,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF1F1F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,7 +1207,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,16 +1231,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -971,89 +1249,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1071,6 +1349,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1635,17 +1919,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1665,7 +1949,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1677,43 +1961,43 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13" t="str">
+      <c r="B4" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B4</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13" t="str">
+      <c r="B5" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B5</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13" t="str">
+      <c r="B6" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B6</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1746,7 +2030,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1766,54 +2050,54 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1846,7 +2130,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1866,54 +2150,54 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1946,7 +2230,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1966,54 +2250,54 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2046,7 +2330,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2066,54 +2350,54 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2146,7 +2430,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2166,54 +2450,54 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2246,7 +2530,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2266,54 +2550,54 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2330,7 +2614,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -2351,7 +2635,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2371,7 +2655,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>98</v>
       </c>
@@ -2451,13 +2735,13 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -2471,7 +2755,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2492,70 +2776,165 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.6153846153846" customWidth="1"/>
+    <col min="2" max="2" width="7.07692307692308" customWidth="1"/>
+    <col min="3" max="4" width="10.3846153846154" customWidth="1"/>
+    <col min="5" max="5" width="9.23076923076923" customWidth="1"/>
+    <col min="6" max="6" width="5.92307692307692" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2585,17 +2964,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2615,7 +2994,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2627,47 +3006,767 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13" t="str">
+      <c r="B4" s="15" t="str">
         <f t="shared" ref="B4:B6" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B4</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13" t="str">
+      <c r="B5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>B5</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13" t="str">
+      <c r="B6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>B6</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.6153846153846" customWidth="1"/>
+    <col min="2" max="2" width="10.3846153846154" customWidth="1"/>
+    <col min="3" max="3" width="5.57692307692308" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="61" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="61" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="61" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2696,7 +3795,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2716,58 +3815,691 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2796,7 +4528,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2816,58 +4548,798 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2896,7 +5368,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2916,58 +5388,610 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2996,7 +6020,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3016,54 +6040,54 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3096,7 +6120,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3116,7 +6140,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3136,34 +6160,34 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3196,7 +6220,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3216,54 +6240,54 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3296,7 +6320,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3316,54 +6340,54 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/config/cfg_template.xlsx
+++ b/config/cfg_template.xlsx
@@ -4,73 +4,88 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="8240" firstSheet="20" activeTab="20"/>
+    <workbookView windowWidth="26880" windowHeight="10560" firstSheet="28" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="JSBG_7_PH-(表层样PH分级)" sheetId="1" r:id="rId1"/>
-    <sheet name="JSBG_10_OM-(表层样OM分级)" sheetId="2" r:id="rId2"/>
-    <sheet name="JSBG_16_TN-(表层样TN分级)" sheetId="5" r:id="rId3"/>
-    <sheet name="JSBG_19_TP-(表层样TP分级)" sheetId="6" r:id="rId4"/>
-    <sheet name="JSBG_22_TK-(表层样TK分级)" sheetId="7" r:id="rId5"/>
-    <sheet name="JSBG_25_AP-(表层样AP分级)" sheetId="8" r:id="rId6"/>
-    <sheet name="JSBG_28_AK-(表层样AK分级)" sheetId="9" r:id="rId7"/>
-    <sheet name="JSBG_31_AS1-(表层样AS1分级)" sheetId="10" r:id="rId8"/>
-    <sheet name="JSBG_34_AFE-(表层样AFE分级)" sheetId="11" r:id="rId9"/>
-    <sheet name="JSBG_37_AMN-(表层样AMN分级)" sheetId="12" r:id="rId10"/>
-    <sheet name="JSBG_40_ACU-(表层样ACU分级)" sheetId="13" r:id="rId11"/>
-    <sheet name="JSBG_43_AZN-(表层样AZN分级)" sheetId="14" r:id="rId12"/>
-    <sheet name="JSBG_46_AB-(表层样AB分级)" sheetId="4" r:id="rId13"/>
-    <sheet name="JSBG_49_AMO-(表层样AMO分级)" sheetId="15" r:id="rId14"/>
-    <sheet name="JSBG_53_GZCHD-(表层样GZCHD分级)" sheetId="16" r:id="rId15"/>
-    <sheet name="TRSX_111_PH-(利用类型pH面积分级)" sheetId="3" r:id="rId16"/>
-    <sheet name="TRSX_112_PH-(街道PH面积分级)" sheetId="18" r:id="rId17"/>
-    <sheet name="TRSX_113_PH-(土类PH面积分级)" sheetId="19" r:id="rId18"/>
-    <sheet name="TRSX_114_CEC-(利用类型ECE面积分级)" sheetId="20" r:id="rId19"/>
-    <sheet name="TRSX_115_CEC-(街道ECE面积分级)" sheetId="21" r:id="rId20"/>
-    <sheet name="TRSX_116_CEC-(土类ECE面积分级)" sheetId="22" r:id="rId21"/>
-    <sheet name="TRSX_117_TRRZPJZ-(利用类型容重面积分级)" sheetId="23" r:id="rId22"/>
-    <sheet name="TRSX_118_TRRZPJZ-(街道容重面积分级)" sheetId="24" r:id="rId23"/>
-    <sheet name="TRSX_119_TRRZPJZ-(土类容重面积分级)" sheetId="25" r:id="rId24"/>
-    <sheet name="TRSX_120_GZCHD" sheetId="26" r:id="rId25"/>
-    <sheet name="TRSX_121_GZCHD" sheetId="27" r:id="rId26"/>
-    <sheet name="TRSX_122_GZCHD" sheetId="28" r:id="rId27"/>
-    <sheet name="TRSX_123_TRZD" sheetId="29" r:id="rId28"/>
-    <sheet name="TRSX_124_TRZD" sheetId="30" r:id="rId29"/>
-    <sheet name="TRSX_125_TRZD" sheetId="31" r:id="rId30"/>
-    <sheet name="TRSX_126_TRSL" sheetId="32" r:id="rId31"/>
-    <sheet name="TRSX_127_TRSL" sheetId="33" r:id="rId32"/>
-    <sheet name="TRSX_128_TRSL" sheetId="34" r:id="rId33"/>
-    <sheet name="TRSX_129_TRFSL" sheetId="35" r:id="rId34"/>
-    <sheet name="TRSX_130_TRFSL" sheetId="36" r:id="rId35"/>
-    <sheet name="TRSX_131_TRFSL" sheetId="37" r:id="rId36"/>
-    <sheet name="TRSX_132_TRNL" sheetId="38" r:id="rId37"/>
-    <sheet name="TRSX_133_TRNL" sheetId="39" r:id="rId38"/>
-    <sheet name="TRSX_134_TRNL" sheetId="40" r:id="rId39"/>
-    <sheet name="TRSX_135_OM-(利用类型OM面积分级)" sheetId="17" r:id="rId40"/>
-    <sheet name="TRSX_136_OM" sheetId="41" r:id="rId41"/>
-    <sheet name="TRSX_137_OM" sheetId="42" r:id="rId42"/>
-    <sheet name="TRSX_138_TN" sheetId="43" r:id="rId43"/>
-    <sheet name="TRSX_139_TN" sheetId="44" r:id="rId44"/>
-    <sheet name="TRSX_140_TN" sheetId="45" r:id="rId45"/>
-    <sheet name="TRSX_141_TP" sheetId="46" r:id="rId46"/>
-    <sheet name="TRSX_142_TP" sheetId="47" r:id="rId47"/>
-    <sheet name="TRSX_143_TP" sheetId="48" r:id="rId48"/>
-    <sheet name="TRSX_144_TK" sheetId="49" r:id="rId49"/>
-    <sheet name="TRSX_145_TK" sheetId="50" r:id="rId50"/>
-    <sheet name="TRSX_146_TK" sheetId="51" r:id="rId51"/>
-    <sheet name="TRSX_147_AP" sheetId="52" r:id="rId52"/>
-    <sheet name="TRSX_148_AP" sheetId="53" r:id="rId53"/>
-    <sheet name="TRSX_149_AP" sheetId="54" r:id="rId54"/>
-    <sheet name="TRSX_150_AK" sheetId="55" r:id="rId55"/>
-    <sheet name="TRSX_151_AK" sheetId="56" r:id="rId56"/>
-    <sheet name="TRSX_152_AK" sheetId="57" r:id="rId57"/>
+    <sheet name="JSBG_8_PH" sheetId="58" r:id="rId2"/>
+    <sheet name="JSBG_10_OM-(表层样OM分级)" sheetId="2" r:id="rId3"/>
+    <sheet name="JSBG_11_OM" sheetId="59" r:id="rId4"/>
+    <sheet name="JSBG_16_TN-(表层样TN分级)" sheetId="5" r:id="rId5"/>
+    <sheet name="JSBG_17_TN" sheetId="60" r:id="rId6"/>
+    <sheet name="JSBG_19_TP-(表层样TP分级)" sheetId="6" r:id="rId7"/>
+    <sheet name="JSBG_20_TP" sheetId="61" r:id="rId8"/>
+    <sheet name="JSBG_22_TK-(表层样TK分级)" sheetId="7" r:id="rId9"/>
+    <sheet name="JSBG_23_TK" sheetId="62" r:id="rId10"/>
+    <sheet name="JSBG_25_AP-(表层样AP分级)" sheetId="8" r:id="rId11"/>
+    <sheet name="JSBG_26_AP" sheetId="63" r:id="rId12"/>
+    <sheet name="JSBG_28_AK-(表层样AK分级)" sheetId="9" r:id="rId13"/>
+    <sheet name="JSBG_29_AK" sheetId="64" r:id="rId14"/>
+    <sheet name="JSBG_31_AS1-(表层样AS1分级)" sheetId="10" r:id="rId15"/>
+    <sheet name="JSBG_32_AS1" sheetId="65" r:id="rId16"/>
+    <sheet name="JSBG_34_AFE-(表层样AFE分级)" sheetId="11" r:id="rId17"/>
+    <sheet name="JSBG_35_AFE" sheetId="66" r:id="rId18"/>
+    <sheet name="JSBG_37_AMN-(表层样AMN分级)" sheetId="12" r:id="rId19"/>
+    <sheet name="JSBG_38_AMN" sheetId="67" r:id="rId20"/>
+    <sheet name="JSBG_40_ACU-(表层样ACU分级)" sheetId="13" r:id="rId21"/>
+    <sheet name="JSBG_41_ACU" sheetId="68" r:id="rId22"/>
+    <sheet name="JSBG_43_AZN-(表层样AZN分级)" sheetId="14" r:id="rId23"/>
+    <sheet name="JSBG_44_AZN" sheetId="69" r:id="rId24"/>
+    <sheet name="JSBG_46_AB-(表层样AB分级)" sheetId="4" r:id="rId25"/>
+    <sheet name="JSBG_47_AB" sheetId="70" r:id="rId26"/>
+    <sheet name="JSBG_49_AMO-(表层样AMO分级)" sheetId="15" r:id="rId27"/>
+    <sheet name="JSBG_50_AMO" sheetId="71" r:id="rId28"/>
+    <sheet name="JSBG_53_GZCHD-(表层样GZCHD分级)" sheetId="16" r:id="rId29"/>
+    <sheet name="JSBG_54_GZCHD" sheetId="72" r:id="rId30"/>
+    <sheet name="TRSX_111_PH-(利用类型pH面积分级)" sheetId="3" r:id="rId31"/>
+    <sheet name="TRSX_112_PH-(街道PH面积分级)" sheetId="18" r:id="rId32"/>
+    <sheet name="TRSX_113_PH-(土类PH面积分级)" sheetId="19" r:id="rId33"/>
+    <sheet name="TRSX_114_CEC-(利用类型ECE面积分级)" sheetId="20" r:id="rId34"/>
+    <sheet name="TRSX_115_CEC-(街道ECE面积分级)" sheetId="21" r:id="rId35"/>
+    <sheet name="TRSX_116_CEC-(土类ECE面积分级)" sheetId="22" r:id="rId36"/>
+    <sheet name="TRSX_117_TRRZPJZ-(利用类型容重面积分级)" sheetId="23" r:id="rId37"/>
+    <sheet name="TRSX_118_TRRZPJZ-(街道容重面积分级)" sheetId="24" r:id="rId38"/>
+    <sheet name="TRSX_119_TRRZPJZ-(土类容重面积分级)" sheetId="25" r:id="rId39"/>
+    <sheet name="TRSX_120_GZCHD" sheetId="26" r:id="rId40"/>
+    <sheet name="TRSX_121_GZCHD" sheetId="27" r:id="rId41"/>
+    <sheet name="TRSX_122_GZCHD" sheetId="28" r:id="rId42"/>
+    <sheet name="TRSX_123_TRZD" sheetId="29" r:id="rId43"/>
+    <sheet name="TRSX_124_TRZD" sheetId="30" r:id="rId44"/>
+    <sheet name="TRSX_125_TRZD" sheetId="31" r:id="rId45"/>
+    <sheet name="TRSX_126_TRSL" sheetId="32" r:id="rId46"/>
+    <sheet name="TRSX_127_TRSL" sheetId="33" r:id="rId47"/>
+    <sheet name="TRSX_128_TRSL" sheetId="34" r:id="rId48"/>
+    <sheet name="TRSX_129_TRFSL" sheetId="35" r:id="rId49"/>
+    <sheet name="TRSX_130_TRFSL" sheetId="36" r:id="rId50"/>
+    <sheet name="TRSX_131_TRFSL" sheetId="37" r:id="rId51"/>
+    <sheet name="TRSX_132_TRNL" sheetId="38" r:id="rId52"/>
+    <sheet name="TRSX_133_TRNL" sheetId="39" r:id="rId53"/>
+    <sheet name="TRSX_134_TRNL" sheetId="40" r:id="rId54"/>
+    <sheet name="TRSX_135_OM-(利用类型OM面积分级)" sheetId="17" r:id="rId55"/>
+    <sheet name="TRSX_136_OM" sheetId="41" r:id="rId56"/>
+    <sheet name="TRSX_137_OM" sheetId="42" r:id="rId57"/>
+    <sheet name="TRSX_138_TN" sheetId="43" r:id="rId58"/>
+    <sheet name="TRSX_139_TN" sheetId="44" r:id="rId59"/>
+    <sheet name="TRSX_140_TN" sheetId="45" r:id="rId60"/>
+    <sheet name="TRSX_141_TP" sheetId="46" r:id="rId61"/>
+    <sheet name="TRSX_142_TP" sheetId="47" r:id="rId62"/>
+    <sheet name="TRSX_143_TP" sheetId="48" r:id="rId63"/>
+    <sheet name="TRSX_144_TK" sheetId="49" r:id="rId64"/>
+    <sheet name="TRSX_145_TK" sheetId="50" r:id="rId65"/>
+    <sheet name="TRSX_146_TK" sheetId="51" r:id="rId66"/>
+    <sheet name="TRSX_147_AP" sheetId="52" r:id="rId67"/>
+    <sheet name="TRSX_148_AP" sheetId="53" r:id="rId68"/>
+    <sheet name="TRSX_149_AP" sheetId="54" r:id="rId69"/>
+    <sheet name="TRSX_150_AK" sheetId="55" r:id="rId70"/>
+    <sheet name="TRSX_151_AK" sheetId="56" r:id="rId71"/>
+    <sheet name="TRSX_152_AK" sheetId="57" r:id="rId72"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="219">
   <si>
     <t>A1</t>
   </si>
@@ -108,9 +123,24 @@
     <t>占比</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）土壤pH统计表</t>
+  </si>
+  <si>
+    <t>乡镇/街道</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>SOM分级</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）土壤有机质含量统计表</t>
+  </si>
+  <si>
+    <t>SOM含量</t>
+  </si>
+  <si>
     <t>XX县表层样点土壤全氮含量分级统计表</t>
   </si>
   <si>
@@ -132,6 +162,12 @@
     <t>≤0.75</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）土壤全氮含量统计表</t>
+  </si>
+  <si>
+    <t>TN含量</t>
+  </si>
+  <si>
     <t>XX县表层样点土壤全磷含量分级统计表</t>
   </si>
   <si>
@@ -153,6 +189,12 @@
     <t>≤0.40</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）土壤全磷含量统计表</t>
+  </si>
+  <si>
+    <t>TP含量</t>
+  </si>
+  <si>
     <t>XX县表层样点土壤全钾含量分级统计表</t>
   </si>
   <si>
@@ -174,6 +216,12 @@
     <t>≤10.00</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）土壤全钾含量统计表</t>
+  </si>
+  <si>
+    <t>TK含量</t>
+  </si>
+  <si>
     <t>XX县表层样点土壤有效磷含量分级统计表</t>
   </si>
   <si>
@@ -189,6 +237,12 @@
     <t>15.00-25.00</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）土壤有效磷含量统计表</t>
+  </si>
+  <si>
+    <t>AP含量</t>
+  </si>
+  <si>
     <t>XX县表层样点土壤速效钾含量分级统计表</t>
   </si>
   <si>
@@ -210,6 +264,12 @@
     <t>≤75</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）土壤速效钾含量统计表</t>
+  </si>
+  <si>
+    <t>AK含量</t>
+  </si>
+  <si>
     <t>XX县表层样点土壤有效硫含量分级统计表</t>
   </si>
   <si>
@@ -228,6 +288,12 @@
     <t>10.00-20.00</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）土壤有效硫含量统计表</t>
+  </si>
+  <si>
+    <t>有效硫含量</t>
+  </si>
+  <si>
     <t>XX县表层样点土壤有效铁含量分级统计表</t>
   </si>
   <si>
@@ -246,6 +312,12 @@
     <t>≤2.50</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）土壤有效铁含量统计表</t>
+  </si>
+  <si>
+    <t>有效铁含量</t>
+  </si>
+  <si>
     <t>XX县表层样点土壤有效锰含量分级统计表</t>
   </si>
   <si>
@@ -267,6 +339,12 @@
     <t>≤3.00</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）土壤有效锰含量统计表</t>
+  </si>
+  <si>
+    <t>有效锰含量</t>
+  </si>
+  <si>
     <t>XX县表层样点土壤有效铜含量分级统计表</t>
   </si>
   <si>
@@ -288,6 +366,12 @@
     <t>≤0.10</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）土壤有效铜含量统计表</t>
+  </si>
+  <si>
+    <t>有效铜含量</t>
+  </si>
+  <si>
     <t>XX县表层样点土壤有效锌含量分级统计表</t>
   </si>
   <si>
@@ -309,6 +393,12 @@
     <t>≤0.50</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）土壤有效锌含量统计表</t>
+  </si>
+  <si>
+    <t>有效锌含量</t>
+  </si>
+  <si>
     <t>XX县表层样点土壤有效硼含量分级统计表</t>
   </si>
   <si>
@@ -342,6 +432,12 @@
     <t>≤0.05</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）土壤有效钼含量统计表</t>
+  </si>
+  <si>
+    <t>有效钼含量</t>
+  </si>
+  <si>
     <t>XX县表层样点耕层厚度分级统计表</t>
   </si>
   <si>
@@ -360,6 +456,12 @@
     <t>≤8.00</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）耕层厚度统计表</t>
+  </si>
+  <si>
+    <t>耕层厚度</t>
+  </si>
+  <si>
     <t>XX县土地利用类型土壤pH分级面积统计表</t>
   </si>
   <si>
@@ -397,9 +499,6 @@
   </si>
   <si>
     <t>XX县各乡镇（街道）土壤pH分级面积统计表</t>
-  </si>
-  <si>
-    <t>乡镇/街道</t>
   </si>
   <si>
     <t>XX县不同土类土壤pH分级面积统计表</t>
@@ -656,7 +755,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,6 +773,18 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1201,137 +1312,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1363,21 +1474,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1919,17 +2036,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1949,7 +2066,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1961,43 +2078,43 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15" t="str">
+      <c r="B4" s="17" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B4</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="15" t="str">
+      <c r="B5" s="17" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B5</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15" t="str">
+      <c r="B6" s="17" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B6</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2011,17 +2128,17 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
+      <selection activeCell="A1" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2029,50 +2146,36 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="31" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2080,24 +2183,12 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2121,7 +2212,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2130,8 +2221,8 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>66</v>
+      <c r="A2" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2150,54 +2241,54 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>71</v>
+      <c r="B3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2211,17 +2302,17 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2229,50 +2320,36 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="31" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>78</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2280,24 +2357,12 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2314,14 +2379,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A1" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2330,8 +2395,8 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>80</v>
+      <c r="A2" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2350,54 +2415,54 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>82</v>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2411,17 +2476,17 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2429,50 +2494,36 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="31" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>89</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2480,24 +2531,12 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2514,14 +2553,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A1" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2530,8 +2569,8 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>91</v>
+      <c r="A2" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2550,54 +2589,54 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>95</v>
+      <c r="B3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2609,6 +2648,1490 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="12.9230769230769" customWidth="1"/>
+    <col min="2" max="2" width="8.92307692307692" customWidth="1"/>
+    <col min="3" max="5" width="14.1538461538462" customWidth="1"/>
+    <col min="6" max="6" width="8.92307692307692" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="17" t="str">
+        <f t="shared" ref="B4:B6" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B4</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>B5</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>B6</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="21.4711538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F8"/>
@@ -2626,7 +4149,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2636,7 +4159,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2657,24 +4180,24 @@
     <row r="3" spans="1:6">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2684,7 +4207,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2694,7 +4217,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2704,7 +4227,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2714,7 +4237,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2732,7 +4255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -2745,7 +4268,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2755,7 +4278,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2776,19 +4299,19 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2801,7 +4324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -2814,7 +4337,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2824,7 +4347,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2845,19 +4368,19 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2870,7 +4393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -2890,7 +4413,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2900,7 +4423,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2921,19 +4444,19 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2946,114 +4469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="12.9230769230769" customWidth="1"/>
-    <col min="2" max="2" width="8.92307692307692" customWidth="1"/>
-    <col min="3" max="5" width="14.1538461538462" customWidth="1"/>
-    <col min="6" max="6" width="8.92307692307692" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="15" t="str">
-        <f t="shared" ref="B4:B6" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>B4</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>B5</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>B6</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3066,7 +4482,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3076,7 +4492,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3097,19 +4513,19 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3122,20 +4538,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3145,7 +4561,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3166,19 +4582,19 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3191,7 +4607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3209,7 +4625,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3219,7 +4635,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3240,19 +4656,19 @@
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3265,7 +4681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3278,7 +4694,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3288,7 +4704,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3309,19 +4725,19 @@
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3334,7 +4750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3347,7 +4763,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3357,7 +4773,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3378,19 +4794,19 @@
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3403,7 +4819,81 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3416,7 +4906,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3426,7 +4916,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3447,1273 +4937,20 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4738,7 +4975,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4748,7 +4985,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -4769,19 +5006,19 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4800,14 +5037,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4817,7 +5054,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -4838,19 +5075,19 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4866,66 +5103,106 @@
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4935,66 +5212,51 @@
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A2:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>169</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5004,66 +5266,51 @@
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A2:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>169</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5083,7 +5330,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5093,7 +5340,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -5114,19 +5361,19 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5152,7 +5399,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5162,7 +5409,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -5183,19 +5430,19 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5214,14 +5461,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5231,7 +5478,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -5252,19 +5499,19 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5280,27 +5527,26 @@
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="A1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -5314,31 +5560,25 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5359,7 +5599,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5368,8 +5608,8 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>28</v>
+      <c r="A2" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -5388,54 +5628,54 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>33</v>
+      <c r="B3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5449,27 +5689,26 @@
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="A1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -5483,31 +5722,25 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5518,27 +5751,26 @@
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="A1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -5552,31 +5784,25 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5587,27 +5813,26 @@
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="A1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -5621,31 +5846,25 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5656,27 +5875,26 @@
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="A1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -5690,31 +5908,25 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5725,27 +5937,26 @@
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -5759,31 +5970,25 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5794,17 +5999,17 @@
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5814,7 +6019,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -5835,20 +6040,70 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5873,7 +6128,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5883,7 +6138,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -5904,19 +6159,19 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5935,14 +6190,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5952,7 +6207,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -5973,19 +6228,157 @@
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -6001,17 +6394,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6019,50 +6412,36 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="31" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -6070,28 +6449,706 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6111,7 +7168,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6120,8 +7177,8 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>40</v>
+      <c r="A2" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -6140,58 +7197,265 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>45</v>
+      <c r="B3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6211,7 +7475,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6219,50 +7483,36 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="31" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -6270,9 +7520,7 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -6280,14 +7528,12 @@
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6311,7 +7557,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6320,8 +7566,8 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>53</v>
+      <c r="A2" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -6340,54 +7586,54 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>57</v>
+      <c r="B3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/config/cfg_template.xlsx
+++ b/config/cfg_template.xlsx
@@ -4,88 +4,138 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26880" windowHeight="10560" firstSheet="28" activeTab="29"/>
+    <workbookView windowWidth="25740" windowHeight="10460" firstSheet="31" activeTab="31"/>
   </bookViews>
   <sheets>
-    <sheet name="JSBG_7_PH-(表层样PH分级)" sheetId="1" r:id="rId1"/>
-    <sheet name="JSBG_8_PH" sheetId="58" r:id="rId2"/>
-    <sheet name="JSBG_10_OM-(表层样OM分级)" sheetId="2" r:id="rId3"/>
-    <sheet name="JSBG_11_OM" sheetId="59" r:id="rId4"/>
-    <sheet name="JSBG_16_TN-(表层样TN分级)" sheetId="5" r:id="rId5"/>
-    <sheet name="JSBG_17_TN" sheetId="60" r:id="rId6"/>
-    <sheet name="JSBG_19_TP-(表层样TP分级)" sheetId="6" r:id="rId7"/>
-    <sheet name="JSBG_20_TP" sheetId="61" r:id="rId8"/>
-    <sheet name="JSBG_22_TK-(表层样TK分级)" sheetId="7" r:id="rId9"/>
-    <sheet name="JSBG_23_TK" sheetId="62" r:id="rId10"/>
-    <sheet name="JSBG_25_AP-(表层样AP分级)" sheetId="8" r:id="rId11"/>
-    <sheet name="JSBG_26_AP" sheetId="63" r:id="rId12"/>
-    <sheet name="JSBG_28_AK-(表层样AK分级)" sheetId="9" r:id="rId13"/>
-    <sheet name="JSBG_29_AK" sheetId="64" r:id="rId14"/>
-    <sheet name="JSBG_31_AS1-(表层样AS1分级)" sheetId="10" r:id="rId15"/>
-    <sheet name="JSBG_32_AS1" sheetId="65" r:id="rId16"/>
-    <sheet name="JSBG_34_AFE-(表层样AFE分级)" sheetId="11" r:id="rId17"/>
-    <sheet name="JSBG_35_AFE" sheetId="66" r:id="rId18"/>
-    <sheet name="JSBG_37_AMN-(表层样AMN分级)" sheetId="12" r:id="rId19"/>
-    <sheet name="JSBG_38_AMN" sheetId="67" r:id="rId20"/>
-    <sheet name="JSBG_40_ACU-(表层样ACU分级)" sheetId="13" r:id="rId21"/>
-    <sheet name="JSBG_41_ACU" sheetId="68" r:id="rId22"/>
-    <sheet name="JSBG_43_AZN-(表层样AZN分级)" sheetId="14" r:id="rId23"/>
-    <sheet name="JSBG_44_AZN" sheetId="69" r:id="rId24"/>
-    <sheet name="JSBG_46_AB-(表层样AB分级)" sheetId="4" r:id="rId25"/>
-    <sheet name="JSBG_47_AB" sheetId="70" r:id="rId26"/>
-    <sheet name="JSBG_49_AMO-(表层样AMO分级)" sheetId="15" r:id="rId27"/>
-    <sheet name="JSBG_50_AMO" sheetId="71" r:id="rId28"/>
-    <sheet name="JSBG_53_GZCHD-(表层样GZCHD分级)" sheetId="16" r:id="rId29"/>
-    <sheet name="JSBG_54_GZCHD" sheetId="72" r:id="rId30"/>
-    <sheet name="TRSX_111_PH-(利用类型pH面积分级)" sheetId="3" r:id="rId31"/>
-    <sheet name="TRSX_112_PH-(街道PH面积分级)" sheetId="18" r:id="rId32"/>
-    <sheet name="TRSX_113_PH-(土类PH面积分级)" sheetId="19" r:id="rId33"/>
-    <sheet name="TRSX_114_CEC-(利用类型ECE面积分级)" sheetId="20" r:id="rId34"/>
-    <sheet name="TRSX_115_CEC-(街道ECE面积分级)" sheetId="21" r:id="rId35"/>
-    <sheet name="TRSX_116_CEC-(土类ECE面积分级)" sheetId="22" r:id="rId36"/>
-    <sheet name="TRSX_117_TRRZPJZ-(利用类型容重面积分级)" sheetId="23" r:id="rId37"/>
-    <sheet name="TRSX_118_TRRZPJZ-(街道容重面积分级)" sheetId="24" r:id="rId38"/>
-    <sheet name="TRSX_119_TRRZPJZ-(土类容重面积分级)" sheetId="25" r:id="rId39"/>
-    <sheet name="TRSX_120_GZCHD" sheetId="26" r:id="rId40"/>
-    <sheet name="TRSX_121_GZCHD" sheetId="27" r:id="rId41"/>
-    <sheet name="TRSX_122_GZCHD" sheetId="28" r:id="rId42"/>
-    <sheet name="TRSX_123_TRZD" sheetId="29" r:id="rId43"/>
-    <sheet name="TRSX_124_TRZD" sheetId="30" r:id="rId44"/>
-    <sheet name="TRSX_125_TRZD" sheetId="31" r:id="rId45"/>
-    <sheet name="TRSX_126_TRSL" sheetId="32" r:id="rId46"/>
-    <sheet name="TRSX_127_TRSL" sheetId="33" r:id="rId47"/>
-    <sheet name="TRSX_128_TRSL" sheetId="34" r:id="rId48"/>
-    <sheet name="TRSX_129_TRFSL" sheetId="35" r:id="rId49"/>
-    <sheet name="TRSX_130_TRFSL" sheetId="36" r:id="rId50"/>
-    <sheet name="TRSX_131_TRFSL" sheetId="37" r:id="rId51"/>
-    <sheet name="TRSX_132_TRNL" sheetId="38" r:id="rId52"/>
-    <sheet name="TRSX_133_TRNL" sheetId="39" r:id="rId53"/>
-    <sheet name="TRSX_134_TRNL" sheetId="40" r:id="rId54"/>
-    <sheet name="TRSX_135_OM-(利用类型OM面积分级)" sheetId="17" r:id="rId55"/>
-    <sheet name="TRSX_136_OM" sheetId="41" r:id="rId56"/>
-    <sheet name="TRSX_137_OM" sheetId="42" r:id="rId57"/>
-    <sheet name="TRSX_138_TN" sheetId="43" r:id="rId58"/>
-    <sheet name="TRSX_139_TN" sheetId="44" r:id="rId59"/>
-    <sheet name="TRSX_140_TN" sheetId="45" r:id="rId60"/>
-    <sheet name="TRSX_141_TP" sheetId="46" r:id="rId61"/>
-    <sheet name="TRSX_142_TP" sheetId="47" r:id="rId62"/>
-    <sheet name="TRSX_143_TP" sheetId="48" r:id="rId63"/>
-    <sheet name="TRSX_144_TK" sheetId="49" r:id="rId64"/>
-    <sheet name="TRSX_145_TK" sheetId="50" r:id="rId65"/>
-    <sheet name="TRSX_146_TK" sheetId="51" r:id="rId66"/>
-    <sheet name="TRSX_147_AP" sheetId="52" r:id="rId67"/>
-    <sheet name="TRSX_148_AP" sheetId="53" r:id="rId68"/>
-    <sheet name="TRSX_149_AP" sheetId="54" r:id="rId69"/>
-    <sheet name="TRSX_150_AK" sheetId="55" r:id="rId70"/>
-    <sheet name="TRSX_151_AK" sheetId="56" r:id="rId71"/>
-    <sheet name="TRSX_152_AK" sheetId="57" r:id="rId72"/>
+    <sheet name="SUTI_66" sheetId="73" r:id="rId1"/>
+    <sheet name="JSBG_7_PH-(表层样PH分级)" sheetId="1" r:id="rId2"/>
+    <sheet name="JSBG_8_PH" sheetId="58" r:id="rId3"/>
+    <sheet name="JSBG_10_OM-(表层样OM分级)" sheetId="2" r:id="rId4"/>
+    <sheet name="JSBG_11_OM" sheetId="59" r:id="rId5"/>
+    <sheet name="JSBG_16_TN-(表层样TN分级)" sheetId="5" r:id="rId6"/>
+    <sheet name="JSBG_17_TN" sheetId="60" r:id="rId7"/>
+    <sheet name="JSBG_19_TP-(表层样TP分级)" sheetId="6" r:id="rId8"/>
+    <sheet name="JSBG_20_TP" sheetId="61" r:id="rId9"/>
+    <sheet name="JSBG_22_TK-(表层样TK分级)" sheetId="7" r:id="rId10"/>
+    <sheet name="JSBG_23_TK" sheetId="62" r:id="rId11"/>
+    <sheet name="JSBG_25_AP-(表层样AP分级)" sheetId="8" r:id="rId12"/>
+    <sheet name="JSBG_26_AP" sheetId="63" r:id="rId13"/>
+    <sheet name="JSBG_28_AK-(表层样AK分级)" sheetId="9" r:id="rId14"/>
+    <sheet name="JSBG_29_AK" sheetId="64" r:id="rId15"/>
+    <sheet name="JSBG_31_AS1-(表层样AS1分级)" sheetId="10" r:id="rId16"/>
+    <sheet name="JSBG_32_AS1" sheetId="65" r:id="rId17"/>
+    <sheet name="JSBG_34_AFE-(表层样AFE分级)" sheetId="11" r:id="rId18"/>
+    <sheet name="JSBG_35_AFE" sheetId="66" r:id="rId19"/>
+    <sheet name="JSBG_37_AMN-(表层样AMN分级)" sheetId="12" r:id="rId20"/>
+    <sheet name="JSBG_38_AMN" sheetId="67" r:id="rId21"/>
+    <sheet name="JSBG_40_ACU-(表层样ACU分级)" sheetId="13" r:id="rId22"/>
+    <sheet name="JSBG_41_ACU" sheetId="68" r:id="rId23"/>
+    <sheet name="JSBG_43_AZN-(表层样AZN分级)" sheetId="14" r:id="rId24"/>
+    <sheet name="JSBG_44_AZN" sheetId="69" r:id="rId25"/>
+    <sheet name="JSBG_46_AB-(表层样AB分级)" sheetId="4" r:id="rId26"/>
+    <sheet name="JSBG_47_AB" sheetId="70" r:id="rId27"/>
+    <sheet name="JSBG_49_AMO-(表层样AMO分级)" sheetId="15" r:id="rId28"/>
+    <sheet name="JSBG_50_AMO" sheetId="71" r:id="rId29"/>
+    <sheet name="JSBG_53_GZCHD-(表层样GZCHD分级)" sheetId="16" r:id="rId30"/>
+    <sheet name="JSBG_54_GZCHD" sheetId="72" r:id="rId31"/>
+    <sheet name="TRSX_111_PH-(利用类型pH面积分级)" sheetId="3" r:id="rId32"/>
+    <sheet name="TRSX_112_PH-(街道PH面积分级)" sheetId="18" r:id="rId33"/>
+    <sheet name="TRSX_113_PH-(土类PH面积分级)" sheetId="19" r:id="rId34"/>
+    <sheet name="TRSX_114_CEC-(利用类型ECE面积分级)" sheetId="20" r:id="rId35"/>
+    <sheet name="TRSX_115_CEC-(街道ECE面积分级)" sheetId="21" r:id="rId36"/>
+    <sheet name="TRSX_116_CEC-(土类ECE面积分级)" sheetId="22" r:id="rId37"/>
+    <sheet name="TRSX_117_TRRZPJZ-(利用类型容重面积分级)" sheetId="23" r:id="rId38"/>
+    <sheet name="TRSX_118_TRRZPJZ-(街道容重面积分级)" sheetId="24" r:id="rId39"/>
+    <sheet name="TRSX_119_TRRZPJZ-(土类容重面积分级)" sheetId="25" r:id="rId40"/>
+    <sheet name="TRSX_120_GZCHD" sheetId="26" r:id="rId41"/>
+    <sheet name="TRSX_121_GZCHD" sheetId="27" r:id="rId42"/>
+    <sheet name="TRSX_122_GZCHD" sheetId="28" r:id="rId43"/>
+    <sheet name="TRSX_123_TRZD" sheetId="29" r:id="rId44"/>
+    <sheet name="TRSX_124_TRZD" sheetId="30" r:id="rId45"/>
+    <sheet name="TRSX_125_TRZD" sheetId="31" r:id="rId46"/>
+    <sheet name="TRSX_126_TRSL" sheetId="32" r:id="rId47"/>
+    <sheet name="TRSX_127_TRSL" sheetId="33" r:id="rId48"/>
+    <sheet name="TRSX_128_TRSL" sheetId="34" r:id="rId49"/>
+    <sheet name="TRSX_129_TRFSL" sheetId="35" r:id="rId50"/>
+    <sheet name="TRSX_130_TRFSL" sheetId="36" r:id="rId51"/>
+    <sheet name="TRSX_131_TRFSL" sheetId="37" r:id="rId52"/>
+    <sheet name="TRSX_132_TRNL" sheetId="38" r:id="rId53"/>
+    <sheet name="TRSX_133_TRNL" sheetId="39" r:id="rId54"/>
+    <sheet name="TRSX_134_TRNL" sheetId="40" r:id="rId55"/>
+    <sheet name="TRSX_135_OM-(利用类型OM面积分级)" sheetId="17" r:id="rId56"/>
+    <sheet name="TRSX_136_OM" sheetId="41" r:id="rId57"/>
+    <sheet name="TRSX_137_OM" sheetId="42" r:id="rId58"/>
+    <sheet name="TRSX_138_TN" sheetId="43" r:id="rId59"/>
+    <sheet name="TRSX_139_TN" sheetId="44" r:id="rId60"/>
+    <sheet name="TRSX_140_TN" sheetId="45" r:id="rId61"/>
+    <sheet name="TRSX_141_TP" sheetId="46" r:id="rId62"/>
+    <sheet name="TRSX_142_TP" sheetId="47" r:id="rId63"/>
+    <sheet name="TRSX_143_TP" sheetId="48" r:id="rId64"/>
+    <sheet name="TRSX_144_TK" sheetId="49" r:id="rId65"/>
+    <sheet name="TRSX_145_TK" sheetId="50" r:id="rId66"/>
+    <sheet name="TRSX_146_TK" sheetId="51" r:id="rId67"/>
+    <sheet name="TRSX_147_AP" sheetId="52" r:id="rId68"/>
+    <sheet name="TRSX_148_AP" sheetId="53" r:id="rId69"/>
+    <sheet name="TRSX_149_AP" sheetId="54" r:id="rId70"/>
+    <sheet name="TRSX_150_AK" sheetId="55" r:id="rId71"/>
+    <sheet name="TRSX_151_AK" sheetId="56" r:id="rId72"/>
+    <sheet name="TRSX_152_AK" sheetId="57" r:id="rId73"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="230">
+  <si>
+    <t>XX县土地利用类型-适宜类评价面积占比表</t>
+  </si>
+  <si>
+    <t>土地利用类型
+（国土三调）</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>宜耕地</t>
+  </si>
+  <si>
+    <t>宜园地</t>
+  </si>
+  <si>
+    <t>宜林地</t>
+  </si>
+  <si>
+    <t>宜草地</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>耕地</t>
+  </si>
+  <si>
+    <t>面积</t>
+  </si>
+  <si>
+    <t>占比</t>
+  </si>
+  <si>
+    <t>园地</t>
+  </si>
+  <si>
+    <t>工程恢复</t>
+  </si>
+  <si>
+    <t>即可恢复</t>
+  </si>
+  <si>
+    <t>林地</t>
+  </si>
+  <si>
+    <t>草地</t>
+  </si>
   <si>
     <t>A1</t>
   </si>
@@ -120,9 +170,6 @@
     <t>计数（个）</t>
   </si>
   <si>
-    <t>占比</t>
-  </si>
-  <si>
     <t>XX县各乡镇（街道）土壤pH统计表</t>
   </si>
   <si>
@@ -481,21 +528,6 @@
   </si>
   <si>
     <t>&gt;8.5, ≤4.5</t>
-  </si>
-  <si>
-    <t>耕地</t>
-  </si>
-  <si>
-    <t>园地</t>
-  </si>
-  <si>
-    <t>林地</t>
-  </si>
-  <si>
-    <t>草地</t>
-  </si>
-  <si>
-    <t>合计</t>
   </si>
   <si>
     <t>XX县各乡镇（街道）土壤pH分级面积统计表</t>
@@ -599,6 +631,9 @@
   </si>
   <si>
     <t>黏土</t>
+  </si>
+  <si>
+    <t>合计</t>
   </si>
   <si>
     <t>XX县乡镇（街道）土壤质地面积统计表</t>
@@ -1145,7 +1180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1166,6 +1201,28 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1318,7 +1375,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1330,34 +1387,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1442,7 +1499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1467,12 +1524,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1496,6 +1547,48 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2022,6 +2115,1233 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="23"/>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="23"/>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="23"/>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A23:B24"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2036,41 +3356,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
+      <c r="A2" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12" t="s">
-        <v>7</v>
+      <c r="A3" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2078,43 +3398,43 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="17" t="str">
+      <c r="A4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B4</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="17" t="str">
+      <c r="A5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B5</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="17" t="str">
+      <c r="A6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
         <v>B6</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2125,81 +3445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -2212,7 +3458,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2221,74 +3467,74 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>46</v>
+      <c r="A2" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>42</v>
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2299,7 +3545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -2312,7 +3558,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2321,48 +3567,48 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>51</v>
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2373,7 +3619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -2386,7 +3632,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2395,74 +3641,74 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>53</v>
+      <c r="A2" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>58</v>
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2473,20 +3719,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2495,48 +3741,48 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>60</v>
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2547,7 +3793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -2560,7 +3806,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2569,74 +3815,74 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>62</v>
+      <c r="A2" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>42</v>
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2647,7 +3893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -2660,7 +3906,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2669,48 +3915,48 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>68</v>
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2721,7 +3967,181 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -2734,7 +4154,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2743,74 +4163,74 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>70</v>
+      <c r="A2" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>74</v>
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2821,20 +4241,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2843,48 +4263,48 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>76</v>
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2895,107 +4315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -3008,7 +4328,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3017,1025 +4337,48 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>14</v>
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="12.9230769230769" customWidth="1"/>
-    <col min="2" max="2" width="8.92307692307692" customWidth="1"/>
-    <col min="3" max="5" width="14.1538461538462" customWidth="1"/>
-    <col min="6" max="6" width="8.92307692307692" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="17" t="str">
-        <f t="shared" ref="B4:B6" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>B4</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>B5</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>B6</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4051,18 +4394,15 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="21.4711538461538" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4070,36 +4410,50 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" ht="31" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>124</v>
+        <v>133</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -4107,7 +4461,9 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -4115,12 +4471,14 @@
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4134,22 +4492,20 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.6153846153846" customWidth="1"/>
-    <col min="2" max="5" width="8.07692307692308" customWidth="1"/>
-    <col min="6" max="6" width="11.2307692307692" customWidth="1"/>
+    <col min="1" max="1" width="21.4711538461538" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4157,98 +4513,61 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9"/>
-      <c r="B3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4260,15 +4579,20 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.6153846153846" customWidth="1"/>
+    <col min="2" max="4" width="8.07692307692308" customWidth="1"/>
+    <col min="5" max="5" width="11.2307692307692" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4278,40 +4602,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4330,14 +4654,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4347,40 +4671,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4394,6 +4718,75 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -4413,7 +4806,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4423,109 +4816,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4544,14 +4868,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4561,40 +4885,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4608,6 +4932,75 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -4625,7 +5018,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4635,109 +5028,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="61" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4755,15 +5079,15 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4773,40 +5097,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4822,67 +5146,100 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="12.9230769230769" customWidth="1"/>
+    <col min="2" max="2" width="8.92307692307692" customWidth="1"/>
+    <col min="3" max="5" width="14.1538461538462" customWidth="1"/>
+    <col min="6" max="6" width="8.92307692307692" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" ht="31" spans="1:6">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="A4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="15" t="str">
+        <f t="shared" ref="B4:B6" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B4</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="A5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>B5</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>B6</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4898,15 +5255,15 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4916,40 +5273,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>161</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4975,7 +5332,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4985,40 +5342,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5044,7 +5401,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5054,40 +5411,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5103,6 +5460,75 @@
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5113,7 +5539,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5124,30 +5550,30 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -5158,7 +5584,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -5169,7 +5595,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -5180,7 +5606,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -5191,7 +5617,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -5199,60 +5625,6 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>170</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5269,14 +5641,14 @@
   <dimension ref="A2:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5287,25 +5659,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5320,66 +5692,51 @@
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A2:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5399,7 +5756,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5409,40 +5766,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5461,14 +5818,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5478,40 +5835,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5527,58 +5884,65 @@
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5589,17 +5953,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5607,75 +5971,49 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5699,7 +6037,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5708,34 +6046,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5761,7 +6099,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5770,34 +6108,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5823,7 +6161,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5832,34 +6170,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5885,7 +6223,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5894,34 +6232,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5940,14 +6278,14 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5956,34 +6294,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5999,6 +6337,68 @@
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6009,7 +6409,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6019,45 +6419,45 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -6067,7 +6467,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -6077,7 +6477,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6087,7 +6487,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -6097,82 +6497,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>195</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6190,14 +6521,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6207,40 +6538,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6259,14 +6590,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6276,40 +6607,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6335,7 +6666,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6345,40 +6676,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -6394,17 +6725,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A1" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6412,36 +6743,50 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" ht="31" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -6449,12 +6794,24 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6478,7 +6835,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6488,40 +6845,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -6547,7 +6904,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6557,40 +6914,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -6616,7 +6973,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6626,40 +6983,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6685,7 +7042,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6695,40 +7052,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6754,7 +7111,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6764,40 +7121,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>206</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>195</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6823,7 +7180,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6833,40 +7190,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6892,7 +7249,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6902,40 +7259,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6961,7 +7318,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6971,40 +7328,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -7030,7 +7387,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7040,40 +7397,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -7099,7 +7456,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7109,40 +7466,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -7158,17 +7515,17 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7176,75 +7533,49 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
+      <c r="B2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7268,7 +7599,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7278,40 +7609,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -7337,7 +7668,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7347,40 +7678,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -7399,6 +7730,75 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -7406,7 +7806,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7416,40 +7816,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -7475,7 +7875,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7483,36 +7883,50 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" ht="31" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -7520,7 +7934,9 @@
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -7528,12 +7944,14 @@
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7557,7 +7975,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7565,75 +7983,57 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/config/cfg_template.xlsx
+++ b/config/cfg_template.xlsx
@@ -4,89 +4,109 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25740" windowHeight="10460" firstSheet="31" activeTab="31"/>
+    <workbookView windowWidth="25740" windowHeight="10460" firstSheet="17" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="SUTI_66" sheetId="73" r:id="rId1"/>
-    <sheet name="JSBG_7_PH-(表层样PH分级)" sheetId="1" r:id="rId2"/>
-    <sheet name="JSBG_8_PH" sheetId="58" r:id="rId3"/>
-    <sheet name="JSBG_10_OM-(表层样OM分级)" sheetId="2" r:id="rId4"/>
-    <sheet name="JSBG_11_OM" sheetId="59" r:id="rId5"/>
-    <sheet name="JSBG_16_TN-(表层样TN分级)" sheetId="5" r:id="rId6"/>
-    <sheet name="JSBG_17_TN" sheetId="60" r:id="rId7"/>
-    <sheet name="JSBG_19_TP-(表层样TP分级)" sheetId="6" r:id="rId8"/>
-    <sheet name="JSBG_20_TP" sheetId="61" r:id="rId9"/>
-    <sheet name="JSBG_22_TK-(表层样TK分级)" sheetId="7" r:id="rId10"/>
-    <sheet name="JSBG_23_TK" sheetId="62" r:id="rId11"/>
-    <sheet name="JSBG_25_AP-(表层样AP分级)" sheetId="8" r:id="rId12"/>
-    <sheet name="JSBG_26_AP" sheetId="63" r:id="rId13"/>
-    <sheet name="JSBG_28_AK-(表层样AK分级)" sheetId="9" r:id="rId14"/>
-    <sheet name="JSBG_29_AK" sheetId="64" r:id="rId15"/>
-    <sheet name="JSBG_31_AS1-(表层样AS1分级)" sheetId="10" r:id="rId16"/>
-    <sheet name="JSBG_32_AS1" sheetId="65" r:id="rId17"/>
-    <sheet name="JSBG_34_AFE-(表层样AFE分级)" sheetId="11" r:id="rId18"/>
-    <sheet name="JSBG_35_AFE" sheetId="66" r:id="rId19"/>
-    <sheet name="JSBG_37_AMN-(表层样AMN分级)" sheetId="12" r:id="rId20"/>
-    <sheet name="JSBG_38_AMN" sheetId="67" r:id="rId21"/>
-    <sheet name="JSBG_40_ACU-(表层样ACU分级)" sheetId="13" r:id="rId22"/>
-    <sheet name="JSBG_41_ACU" sheetId="68" r:id="rId23"/>
-    <sheet name="JSBG_43_AZN-(表层样AZN分级)" sheetId="14" r:id="rId24"/>
-    <sheet name="JSBG_44_AZN" sheetId="69" r:id="rId25"/>
-    <sheet name="JSBG_46_AB-(表层样AB分级)" sheetId="4" r:id="rId26"/>
-    <sheet name="JSBG_47_AB" sheetId="70" r:id="rId27"/>
-    <sheet name="JSBG_49_AMO-(表层样AMO分级)" sheetId="15" r:id="rId28"/>
-    <sheet name="JSBG_50_AMO" sheetId="71" r:id="rId29"/>
-    <sheet name="JSBG_53_GZCHD-(表层样GZCHD分级)" sheetId="16" r:id="rId30"/>
-    <sheet name="JSBG_54_GZCHD" sheetId="72" r:id="rId31"/>
-    <sheet name="TRSX_111_PH-(利用类型pH面积分级)" sheetId="3" r:id="rId32"/>
-    <sheet name="TRSX_112_PH-(街道PH面积分级)" sheetId="18" r:id="rId33"/>
-    <sheet name="TRSX_113_PH-(土类PH面积分级)" sheetId="19" r:id="rId34"/>
-    <sheet name="TRSX_114_CEC-(利用类型ECE面积分级)" sheetId="20" r:id="rId35"/>
-    <sheet name="TRSX_115_CEC-(街道ECE面积分级)" sheetId="21" r:id="rId36"/>
-    <sheet name="TRSX_116_CEC-(土类ECE面积分级)" sheetId="22" r:id="rId37"/>
-    <sheet name="TRSX_117_TRRZPJZ-(利用类型容重面积分级)" sheetId="23" r:id="rId38"/>
-    <sheet name="TRSX_118_TRRZPJZ-(街道容重面积分级)" sheetId="24" r:id="rId39"/>
-    <sheet name="TRSX_119_TRRZPJZ-(土类容重面积分级)" sheetId="25" r:id="rId40"/>
-    <sheet name="TRSX_120_GZCHD" sheetId="26" r:id="rId41"/>
-    <sheet name="TRSX_121_GZCHD" sheetId="27" r:id="rId42"/>
-    <sheet name="TRSX_122_GZCHD" sheetId="28" r:id="rId43"/>
-    <sheet name="TRSX_123_TRZD" sheetId="29" r:id="rId44"/>
-    <sheet name="TRSX_124_TRZD" sheetId="30" r:id="rId45"/>
-    <sheet name="TRSX_125_TRZD" sheetId="31" r:id="rId46"/>
-    <sheet name="TRSX_126_TRSL" sheetId="32" r:id="rId47"/>
-    <sheet name="TRSX_127_TRSL" sheetId="33" r:id="rId48"/>
-    <sheet name="TRSX_128_TRSL" sheetId="34" r:id="rId49"/>
-    <sheet name="TRSX_129_TRFSL" sheetId="35" r:id="rId50"/>
-    <sheet name="TRSX_130_TRFSL" sheetId="36" r:id="rId51"/>
-    <sheet name="TRSX_131_TRFSL" sheetId="37" r:id="rId52"/>
-    <sheet name="TRSX_132_TRNL" sheetId="38" r:id="rId53"/>
-    <sheet name="TRSX_133_TRNL" sheetId="39" r:id="rId54"/>
-    <sheet name="TRSX_134_TRNL" sheetId="40" r:id="rId55"/>
-    <sheet name="TRSX_135_OM-(利用类型OM面积分级)" sheetId="17" r:id="rId56"/>
-    <sheet name="TRSX_136_OM" sheetId="41" r:id="rId57"/>
-    <sheet name="TRSX_137_OM" sheetId="42" r:id="rId58"/>
-    <sheet name="TRSX_138_TN" sheetId="43" r:id="rId59"/>
-    <sheet name="TRSX_139_TN" sheetId="44" r:id="rId60"/>
-    <sheet name="TRSX_140_TN" sheetId="45" r:id="rId61"/>
-    <sheet name="TRSX_141_TP" sheetId="46" r:id="rId62"/>
-    <sheet name="TRSX_142_TP" sheetId="47" r:id="rId63"/>
-    <sheet name="TRSX_143_TP" sheetId="48" r:id="rId64"/>
-    <sheet name="TRSX_144_TK" sheetId="49" r:id="rId65"/>
-    <sheet name="TRSX_145_TK" sheetId="50" r:id="rId66"/>
-    <sheet name="TRSX_146_TK" sheetId="51" r:id="rId67"/>
-    <sheet name="TRSX_147_AP" sheetId="52" r:id="rId68"/>
-    <sheet name="TRSX_148_AP" sheetId="53" r:id="rId69"/>
-    <sheet name="TRSX_149_AP" sheetId="54" r:id="rId70"/>
-    <sheet name="TRSX_150_AK" sheetId="55" r:id="rId71"/>
-    <sheet name="TRSX_151_AK" sheetId="56" r:id="rId72"/>
-    <sheet name="TRSX_152_AK" sheetId="57" r:id="rId73"/>
+    <sheet name="QUAL_76" sheetId="74" r:id="rId2"/>
+    <sheet name="QUAL_78" sheetId="75" r:id="rId3"/>
+    <sheet name="QUAL_79" sheetId="76" r:id="rId4"/>
+    <sheet name="QUAL_81" sheetId="77" r:id="rId5"/>
+    <sheet name="QUAL_82" sheetId="78" r:id="rId6"/>
+    <sheet name="QUAL_84" sheetId="79" r:id="rId7"/>
+    <sheet name="QUAL_85" sheetId="80" r:id="rId8"/>
+    <sheet name="QUAL_87" sheetId="81" r:id="rId9"/>
+    <sheet name="QUAL_88" sheetId="82" r:id="rId10"/>
+    <sheet name="QUAL_90" sheetId="83" r:id="rId11"/>
+    <sheet name="QUAL_91" sheetId="84" r:id="rId12"/>
+    <sheet name="QUAL_93" sheetId="85" r:id="rId13"/>
+    <sheet name="QUAL_94" sheetId="86" r:id="rId14"/>
+    <sheet name="QUAL_96" sheetId="87" r:id="rId15"/>
+    <sheet name="QUAL_97" sheetId="88" r:id="rId16"/>
+    <sheet name="QUAL_99" sheetId="89" r:id="rId17"/>
+    <sheet name="QUAL_100" sheetId="90" r:id="rId18"/>
+    <sheet name="QUAL_102" sheetId="91" r:id="rId19"/>
+    <sheet name="QUAL_103" sheetId="92" r:id="rId20"/>
+    <sheet name="QUAL_105" sheetId="93" r:id="rId21"/>
+    <sheet name="JSBG_7_PH-(表层样PH分级)" sheetId="1" r:id="rId22"/>
+    <sheet name="JSBG_8_PH" sheetId="58" r:id="rId23"/>
+    <sheet name="JSBG_10_OM-(表层样OM分级)" sheetId="2" r:id="rId24"/>
+    <sheet name="JSBG_11_OM" sheetId="59" r:id="rId25"/>
+    <sheet name="JSBG_16_TN-(表层样TN分级)" sheetId="5" r:id="rId26"/>
+    <sheet name="JSBG_17_TN" sheetId="60" r:id="rId27"/>
+    <sheet name="JSBG_19_TP-(表层样TP分级)" sheetId="6" r:id="rId28"/>
+    <sheet name="JSBG_20_TP" sheetId="61" r:id="rId29"/>
+    <sheet name="JSBG_22_TK-(表层样TK分级)" sheetId="7" r:id="rId30"/>
+    <sheet name="JSBG_23_TK" sheetId="62" r:id="rId31"/>
+    <sheet name="JSBG_25_AP-(表层样AP分级)" sheetId="8" r:id="rId32"/>
+    <sheet name="JSBG_26_AP" sheetId="63" r:id="rId33"/>
+    <sheet name="JSBG_28_AK-(表层样AK分级)" sheetId="9" r:id="rId34"/>
+    <sheet name="JSBG_29_AK" sheetId="64" r:id="rId35"/>
+    <sheet name="JSBG_31_AS1-(表层样AS1分级)" sheetId="10" r:id="rId36"/>
+    <sheet name="JSBG_32_AS1" sheetId="65" r:id="rId37"/>
+    <sheet name="JSBG_34_AFE-(表层样AFE分级)" sheetId="11" r:id="rId38"/>
+    <sheet name="JSBG_35_AFE" sheetId="66" r:id="rId39"/>
+    <sheet name="JSBG_37_AMN-(表层样AMN分级)" sheetId="12" r:id="rId40"/>
+    <sheet name="JSBG_38_AMN" sheetId="67" r:id="rId41"/>
+    <sheet name="JSBG_40_ACU-(表层样ACU分级)" sheetId="13" r:id="rId42"/>
+    <sheet name="JSBG_41_ACU" sheetId="68" r:id="rId43"/>
+    <sheet name="JSBG_43_AZN-(表层样AZN分级)" sheetId="14" r:id="rId44"/>
+    <sheet name="JSBG_44_AZN" sheetId="69" r:id="rId45"/>
+    <sheet name="JSBG_46_AB-(表层样AB分级)" sheetId="4" r:id="rId46"/>
+    <sheet name="JSBG_47_AB" sheetId="70" r:id="rId47"/>
+    <sheet name="JSBG_49_AMO-(表层样AMO分级)" sheetId="15" r:id="rId48"/>
+    <sheet name="JSBG_50_AMO" sheetId="71" r:id="rId49"/>
+    <sheet name="JSBG_53_GZCHD-(表层样GZCHD分级)" sheetId="16" r:id="rId50"/>
+    <sheet name="JSBG_54_GZCHD" sheetId="72" r:id="rId51"/>
+    <sheet name="TRSX_111_PH-(利用类型pH面积分级)" sheetId="3" r:id="rId52"/>
+    <sheet name="TRSX_112_PH-(街道PH面积分级)" sheetId="18" r:id="rId53"/>
+    <sheet name="TRSX_113_PH-(土类PH面积分级)" sheetId="19" r:id="rId54"/>
+    <sheet name="TRSX_114_CEC-(利用类型ECE面积分级)" sheetId="20" r:id="rId55"/>
+    <sheet name="TRSX_115_CEC-(街道ECE面积分级)" sheetId="21" r:id="rId56"/>
+    <sheet name="TRSX_116_CEC-(土类ECE面积分级)" sheetId="22" r:id="rId57"/>
+    <sheet name="TRSX_117_TRRZPJZ-(利用类型容重面积分级)" sheetId="23" r:id="rId58"/>
+    <sheet name="TRSX_118_TRRZPJZ-(街道容重面积分级)" sheetId="24" r:id="rId59"/>
+    <sheet name="TRSX_119_TRRZPJZ-(土类容重面积分级)" sheetId="25" r:id="rId60"/>
+    <sheet name="TRSX_120_GZCHD" sheetId="26" r:id="rId61"/>
+    <sheet name="TRSX_121_GZCHD" sheetId="27" r:id="rId62"/>
+    <sheet name="TRSX_122_GZCHD" sheetId="28" r:id="rId63"/>
+    <sheet name="TRSX_123_TRZD" sheetId="29" r:id="rId64"/>
+    <sheet name="TRSX_124_TRZD" sheetId="30" r:id="rId65"/>
+    <sheet name="TRSX_125_TRZD" sheetId="31" r:id="rId66"/>
+    <sheet name="TRSX_126_TRSL" sheetId="32" r:id="rId67"/>
+    <sheet name="TRSX_127_TRSL" sheetId="33" r:id="rId68"/>
+    <sheet name="TRSX_128_TRSL" sheetId="34" r:id="rId69"/>
+    <sheet name="TRSX_129_TRFSL" sheetId="35" r:id="rId70"/>
+    <sheet name="TRSX_130_TRFSL" sheetId="36" r:id="rId71"/>
+    <sheet name="TRSX_131_TRFSL" sheetId="37" r:id="rId72"/>
+    <sheet name="TRSX_132_TRNL" sheetId="38" r:id="rId73"/>
+    <sheet name="TRSX_133_TRNL" sheetId="39" r:id="rId74"/>
+    <sheet name="TRSX_134_TRNL" sheetId="40" r:id="rId75"/>
+    <sheet name="TRSX_135_OM-(利用类型OM面积分级)" sheetId="17" r:id="rId76"/>
+    <sheet name="TRSX_136_OM" sheetId="41" r:id="rId77"/>
+    <sheet name="TRSX_137_OM" sheetId="42" r:id="rId78"/>
+    <sheet name="TRSX_138_TN" sheetId="43" r:id="rId79"/>
+    <sheet name="TRSX_139_TN" sheetId="44" r:id="rId80"/>
+    <sheet name="TRSX_140_TN" sheetId="45" r:id="rId81"/>
+    <sheet name="TRSX_141_TP" sheetId="46" r:id="rId82"/>
+    <sheet name="TRSX_142_TP" sheetId="47" r:id="rId83"/>
+    <sheet name="TRSX_143_TP" sheetId="48" r:id="rId84"/>
+    <sheet name="TRSX_144_TK" sheetId="49" r:id="rId85"/>
+    <sheet name="TRSX_145_TK" sheetId="50" r:id="rId86"/>
+    <sheet name="TRSX_146_TK" sheetId="51" r:id="rId87"/>
+    <sheet name="TRSX_147_AP" sheetId="52" r:id="rId88"/>
+    <sheet name="TRSX_148_AP" sheetId="53" r:id="rId89"/>
+    <sheet name="TRSX_149_AP" sheetId="54" r:id="rId90"/>
+    <sheet name="TRSX_150_AK" sheetId="55" r:id="rId91"/>
+    <sheet name="TRSX_151_AK" sheetId="56" r:id="rId92"/>
+    <sheet name="TRSX_152_AK" sheetId="57" r:id="rId93"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="252">
   <si>
     <t>XX县土地利用类型-适宜类评价面积占比表</t>
   </si>
@@ -137,6 +157,75 @@
     <t>草地</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）一等地分布情况</t>
+  </si>
+  <si>
+    <t>乡镇/街道</t>
+  </si>
+  <si>
+    <t>面积（万亩）</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）一等地产能水平</t>
+  </si>
+  <si>
+    <t>产能（kg/亩）</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）二等地分布情况</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）二等地产能水平</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）三等地分布情况</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）三等地产能水平</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）四等地分布情况</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）四等地产能水平</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）五等地分布情况</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）五等地产能水平</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）六等地分布情况</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）六等地产能水平</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）七等地分布情况</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）七等地产能水平</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）八等地分布情况</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）八等地产能水平</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）九等地分布情况</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）九等地产能水平</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）十等地分布情况</t>
+  </si>
+  <si>
+    <t>XX县各乡镇（街道）十等地产能水平</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
@@ -171,9 +260,6 @@
   </si>
   <si>
     <t>XX县各乡镇（街道）土壤pH统计表</t>
-  </si>
-  <si>
-    <t>乡镇/街道</t>
   </si>
   <si>
     <t>pH</t>
@@ -1180,7 +1266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1192,6 +1278,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1375,7 +1498,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1387,34 +1510,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1499,7 +1622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1548,10 +1671,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1566,10 +1704,10 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2136,17 +2274,17 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -2160,278 +2298,278 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="21"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="19" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="23"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="19" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="23"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="19" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="23"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="21"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3"/>
@@ -2439,11 +2577,11 @@
       <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2472,17 +2610,758 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.6153846153846" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="12.9230769230769" customWidth="1"/>
+    <col min="2" max="5" width="8.07692307692308" customWidth="1"/>
+    <col min="6" max="6" width="11.2307692307692" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="15" t="str">
+        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B4</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="15" t="str">
+        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B5</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="15" t="str">
+        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B6</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2490,124 +3369,24 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2643,20 +3422,127 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="12.9230769230769" customWidth="1"/>
+    <col min="2" max="2" width="8.92307692307692" customWidth="1"/>
+    <col min="3" max="5" width="14.1538461538462" customWidth="1"/>
+    <col min="6" max="6" width="8.92307692307692" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="15" t="str">
+        <f t="shared" ref="B4:B6" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
+        <v>B4</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>B5</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>B6</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2664,124 +3550,24 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2817,7 +3603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -2830,7 +3616,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2840,47 +3626,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>46</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2890,7 +3676,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2917,20 +3703,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2940,22 +3726,22 @@
     </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2991,7 +3777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -3004,7 +3790,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3014,47 +3800,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3064,7 +3850,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -3091,20 +3877,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3114,22 +3900,22 @@
     </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3156,6 +3942,14 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -3165,7 +3959,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -3178,7 +4019,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3188,47 +4029,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3238,7 +4079,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -3254,7 +4095,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3265,20 +4106,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A1" sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3288,22 +4129,22 @@
     </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3339,113 +4180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="12.9230769230769" customWidth="1"/>
-    <col min="2" max="5" width="8.07692307692308" customWidth="1"/>
-    <col min="6" max="6" width="11.2307692307692" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="15" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>B4</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="15" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>B5</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="15" t="str">
-        <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>B6</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -3458,7 +4193,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3468,47 +4203,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3518,7 +4253,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -3545,7 +4280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -3558,7 +4293,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3568,22 +4303,22 @@
     </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3619,7 +4354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -3632,7 +4367,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3642,47 +4377,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>107</v>
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3692,7 +4427,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -3708,7 +4443,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3719,20 +4454,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3742,22 +4477,22 @@
     </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3793,7 +4528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -3806,7 +4541,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3816,47 +4551,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3866,7 +4601,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -3893,7 +4628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -3906,7 +4641,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3916,22 +4651,22 @@
     </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3967,20 +4702,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A1" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3990,47 +4725,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -4040,7 +4775,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -4052,11 +4787,11 @@
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4067,20 +4802,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4090,22 +4825,22 @@
     </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4141,7 +4876,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -4154,7 +4939,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4164,47 +4949,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -4214,7 +4999,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -4241,20 +5026,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4264,22 +5049,22 @@
     </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4315,20 +5100,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4336,24 +5121,124 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4389,13 +5274,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A1" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -4415,44 +5300,44 @@
         <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -4462,7 +5347,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -4489,23 +5374,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="21.4711538461538" customWidth="1"/>
-  </cols>
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4515,22 +5397,22 @@
     </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4557,6 +5439,578 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="21.4711538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
@@ -4574,13 +6028,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -4588,11 +6042,12 @@
     <col min="1" max="1" width="13.6153846153846" customWidth="1"/>
     <col min="2" max="4" width="8.07692307692308" customWidth="1"/>
     <col min="5" max="5" width="11.2307692307692" customWidth="1"/>
+    <col min="6" max="6" width="17.9423076923077" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4602,40 +6057,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4648,7 +6103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -4661,7 +6116,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4671,40 +6126,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4717,7 +6172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -4730,7 +6185,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4740,40 +6195,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4786,7 +6241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -4806,7 +6261,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4816,40 +6271,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4862,7 +6317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -4875,7 +6330,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4885,40 +6340,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4931,7 +6386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -4944,7 +6399,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4954,40 +6409,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5000,7 +6455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -5018,7 +6473,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5028,40 +6483,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5074,7 +6529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -5087,7 +6542,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5097,40 +6552,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5143,103 +6598,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="12.9230769230769" customWidth="1"/>
-    <col min="2" max="2" width="8.92307692307692" customWidth="1"/>
-    <col min="3" max="5" width="14.1538461538462" customWidth="1"/>
-    <col min="6" max="6" width="8.92307692307692" customWidth="1"/>
-  </cols>
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="A1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="15" t="str">
-        <f t="shared" ref="B4:B6" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
-        <v>B4</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>B5</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>B6</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5250,7 +6648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -5263,7 +6661,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5273,40 +6671,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5319,7 +6717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -5332,7 +6730,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5342,40 +6740,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5388,7 +6786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -5401,7 +6799,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5411,40 +6809,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5457,7 +6855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -5470,7 +6868,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5480,40 +6878,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5526,7 +6924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G8"/>
@@ -5539,7 +6937,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5550,25 +6948,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5617,7 +7015,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -5635,7 +7033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G3"/>
@@ -5648,7 +7046,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5659,25 +7057,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5689,7 +7087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G3"/>
@@ -5702,7 +7100,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5713,25 +7111,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5743,7 +7141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -5756,7 +7154,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5766,40 +7164,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5812,7 +7210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -5825,7 +7223,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5835,40 +7233,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5881,7 +7279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -5894,7 +7292,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5904,40 +7302,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5950,20 +7348,439 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5971,114 +7788,97 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>32</v>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>195</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6086,330 +7886,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6419,91 +7909,41 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6515,20 +7955,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6538,40 +7978,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6584,20 +8024,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6607,40 +8047,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>206</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -6653,7 +8093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6665,8 +8105,58 @@
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6676,40 +8166,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -6722,20 +8212,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6744,85 +8234,54 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>34</v>
+      <c r="A2" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6835,7 +8294,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6845,40 +8304,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -6891,7 +8350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6904,7 +8363,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6914,40 +8373,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -6960,7 +8419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6973,7 +8432,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6983,40 +8442,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -7029,7 +8488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7042,7 +8501,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7052,40 +8511,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +8557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7111,7 +8570,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7121,40 +8580,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -7167,7 +8626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7180,7 +8639,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7190,40 +8649,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -7236,7 +8695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7249,7 +8708,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7259,40 +8718,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -7305,7 +8764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7318,7 +8777,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7328,40 +8787,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -7374,7 +8833,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7387,7 +8893,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7397,40 +8903,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -7443,7 +8949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7456,7 +8962,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7466,40 +8972,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>223</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -7512,20 +9018,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7533,73 +9039,68 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>41</v>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7609,40 +9110,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>223</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -7653,393 +9154,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/config/cfg_template.xlsx
+++ b/config/cfg_template.xlsx
@@ -4,109 +4,119 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25740" windowHeight="10460" firstSheet="17" activeTab="20"/>
+    <workbookView windowWidth="25740" windowHeight="9860" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="SUTI_66" sheetId="73" r:id="rId1"/>
     <sheet name="QUAL_76" sheetId="74" r:id="rId2"/>
-    <sheet name="QUAL_78" sheetId="75" r:id="rId3"/>
-    <sheet name="QUAL_79" sheetId="76" r:id="rId4"/>
-    <sheet name="QUAL_81" sheetId="77" r:id="rId5"/>
-    <sheet name="QUAL_82" sheetId="78" r:id="rId6"/>
-    <sheet name="QUAL_84" sheetId="79" r:id="rId7"/>
-    <sheet name="QUAL_85" sheetId="80" r:id="rId8"/>
-    <sheet name="QUAL_87" sheetId="81" r:id="rId9"/>
-    <sheet name="QUAL_88" sheetId="82" r:id="rId10"/>
-    <sheet name="QUAL_90" sheetId="83" r:id="rId11"/>
-    <sheet name="QUAL_91" sheetId="84" r:id="rId12"/>
-    <sheet name="QUAL_93" sheetId="85" r:id="rId13"/>
-    <sheet name="QUAL_94" sheetId="86" r:id="rId14"/>
-    <sheet name="QUAL_96" sheetId="87" r:id="rId15"/>
-    <sheet name="QUAL_97" sheetId="88" r:id="rId16"/>
-    <sheet name="QUAL_99" sheetId="89" r:id="rId17"/>
-    <sheet name="QUAL_100" sheetId="90" r:id="rId18"/>
-    <sheet name="QUAL_102" sheetId="91" r:id="rId19"/>
-    <sheet name="QUAL_103" sheetId="92" r:id="rId20"/>
-    <sheet name="QUAL_105" sheetId="93" r:id="rId21"/>
-    <sheet name="JSBG_7_PH-(表层样PH分级)" sheetId="1" r:id="rId22"/>
-    <sheet name="JSBG_8_PH" sheetId="58" r:id="rId23"/>
-    <sheet name="JSBG_10_OM-(表层样OM分级)" sheetId="2" r:id="rId24"/>
-    <sheet name="JSBG_11_OM" sheetId="59" r:id="rId25"/>
-    <sheet name="JSBG_16_TN-(表层样TN分级)" sheetId="5" r:id="rId26"/>
-    <sheet name="JSBG_17_TN" sheetId="60" r:id="rId27"/>
-    <sheet name="JSBG_19_TP-(表层样TP分级)" sheetId="6" r:id="rId28"/>
-    <sheet name="JSBG_20_TP" sheetId="61" r:id="rId29"/>
-    <sheet name="JSBG_22_TK-(表层样TK分级)" sheetId="7" r:id="rId30"/>
-    <sheet name="JSBG_23_TK" sheetId="62" r:id="rId31"/>
-    <sheet name="JSBG_25_AP-(表层样AP分级)" sheetId="8" r:id="rId32"/>
-    <sheet name="JSBG_26_AP" sheetId="63" r:id="rId33"/>
-    <sheet name="JSBG_28_AK-(表层样AK分级)" sheetId="9" r:id="rId34"/>
-    <sheet name="JSBG_29_AK" sheetId="64" r:id="rId35"/>
-    <sheet name="JSBG_31_AS1-(表层样AS1分级)" sheetId="10" r:id="rId36"/>
-    <sheet name="JSBG_32_AS1" sheetId="65" r:id="rId37"/>
-    <sheet name="JSBG_34_AFE-(表层样AFE分级)" sheetId="11" r:id="rId38"/>
-    <sheet name="JSBG_35_AFE" sheetId="66" r:id="rId39"/>
-    <sheet name="JSBG_37_AMN-(表层样AMN分级)" sheetId="12" r:id="rId40"/>
-    <sheet name="JSBG_38_AMN" sheetId="67" r:id="rId41"/>
-    <sheet name="JSBG_40_ACU-(表层样ACU分级)" sheetId="13" r:id="rId42"/>
-    <sheet name="JSBG_41_ACU" sheetId="68" r:id="rId43"/>
-    <sheet name="JSBG_43_AZN-(表层样AZN分级)" sheetId="14" r:id="rId44"/>
-    <sheet name="JSBG_44_AZN" sheetId="69" r:id="rId45"/>
-    <sheet name="JSBG_46_AB-(表层样AB分级)" sheetId="4" r:id="rId46"/>
-    <sheet name="JSBG_47_AB" sheetId="70" r:id="rId47"/>
-    <sheet name="JSBG_49_AMO-(表层样AMO分级)" sheetId="15" r:id="rId48"/>
-    <sheet name="JSBG_50_AMO" sheetId="71" r:id="rId49"/>
-    <sheet name="JSBG_53_GZCHD-(表层样GZCHD分级)" sheetId="16" r:id="rId50"/>
-    <sheet name="JSBG_54_GZCHD" sheetId="72" r:id="rId51"/>
-    <sheet name="TRSX_111_PH-(利用类型pH面积分级)" sheetId="3" r:id="rId52"/>
-    <sheet name="TRSX_112_PH-(街道PH面积分级)" sheetId="18" r:id="rId53"/>
-    <sheet name="TRSX_113_PH-(土类PH面积分级)" sheetId="19" r:id="rId54"/>
-    <sheet name="TRSX_114_CEC-(利用类型ECE面积分级)" sheetId="20" r:id="rId55"/>
-    <sheet name="TRSX_115_CEC-(街道ECE面积分级)" sheetId="21" r:id="rId56"/>
-    <sheet name="TRSX_116_CEC-(土类ECE面积分级)" sheetId="22" r:id="rId57"/>
-    <sheet name="TRSX_117_TRRZPJZ-(利用类型容重面积分级)" sheetId="23" r:id="rId58"/>
-    <sheet name="TRSX_118_TRRZPJZ-(街道容重面积分级)" sheetId="24" r:id="rId59"/>
-    <sheet name="TRSX_119_TRRZPJZ-(土类容重面积分级)" sheetId="25" r:id="rId60"/>
-    <sheet name="TRSX_120_GZCHD" sheetId="26" r:id="rId61"/>
-    <sheet name="TRSX_121_GZCHD" sheetId="27" r:id="rId62"/>
-    <sheet name="TRSX_122_GZCHD" sheetId="28" r:id="rId63"/>
-    <sheet name="TRSX_123_TRZD" sheetId="29" r:id="rId64"/>
-    <sheet name="TRSX_124_TRZD" sheetId="30" r:id="rId65"/>
-    <sheet name="TRSX_125_TRZD" sheetId="31" r:id="rId66"/>
-    <sheet name="TRSX_126_TRSL" sheetId="32" r:id="rId67"/>
-    <sheet name="TRSX_127_TRSL" sheetId="33" r:id="rId68"/>
-    <sheet name="TRSX_128_TRSL" sheetId="34" r:id="rId69"/>
-    <sheet name="TRSX_129_TRFSL" sheetId="35" r:id="rId70"/>
-    <sheet name="TRSX_130_TRFSL" sheetId="36" r:id="rId71"/>
-    <sheet name="TRSX_131_TRFSL" sheetId="37" r:id="rId72"/>
-    <sheet name="TRSX_132_TRNL" sheetId="38" r:id="rId73"/>
-    <sheet name="TRSX_133_TRNL" sheetId="39" r:id="rId74"/>
-    <sheet name="TRSX_134_TRNL" sheetId="40" r:id="rId75"/>
-    <sheet name="TRSX_135_OM-(利用类型OM面积分级)" sheetId="17" r:id="rId76"/>
-    <sheet name="TRSX_136_OM" sheetId="41" r:id="rId77"/>
-    <sheet name="TRSX_137_OM" sheetId="42" r:id="rId78"/>
-    <sheet name="TRSX_138_TN" sheetId="43" r:id="rId79"/>
-    <sheet name="TRSX_139_TN" sheetId="44" r:id="rId80"/>
-    <sheet name="TRSX_140_TN" sheetId="45" r:id="rId81"/>
-    <sheet name="TRSX_141_TP" sheetId="46" r:id="rId82"/>
-    <sheet name="TRSX_142_TP" sheetId="47" r:id="rId83"/>
-    <sheet name="TRSX_143_TP" sheetId="48" r:id="rId84"/>
-    <sheet name="TRSX_144_TK" sheetId="49" r:id="rId85"/>
-    <sheet name="TRSX_145_TK" sheetId="50" r:id="rId86"/>
-    <sheet name="TRSX_146_TK" sheetId="51" r:id="rId87"/>
-    <sheet name="TRSX_147_AP" sheetId="52" r:id="rId88"/>
-    <sheet name="TRSX_148_AP" sheetId="53" r:id="rId89"/>
-    <sheet name="TRSX_149_AP" sheetId="54" r:id="rId90"/>
-    <sheet name="TRSX_150_AK" sheetId="55" r:id="rId91"/>
-    <sheet name="TRSX_151_AK" sheetId="56" r:id="rId92"/>
-    <sheet name="TRSX_152_AK" sheetId="57" r:id="rId93"/>
+    <sheet name="QUAL_77" sheetId="94" r:id="rId3"/>
+    <sheet name="QUAL_78" sheetId="75" r:id="rId4"/>
+    <sheet name="QUAL_79" sheetId="76" r:id="rId5"/>
+    <sheet name="QUAL_80" sheetId="95" r:id="rId6"/>
+    <sheet name="QUAL_81" sheetId="77" r:id="rId7"/>
+    <sheet name="QUAL_82" sheetId="78" r:id="rId8"/>
+    <sheet name="QUAL_83" sheetId="96" r:id="rId9"/>
+    <sheet name="QUAL_84" sheetId="79" r:id="rId10"/>
+    <sheet name="QUAL_85" sheetId="80" r:id="rId11"/>
+    <sheet name="QUAL_86" sheetId="97" r:id="rId12"/>
+    <sheet name="QUAL_87" sheetId="81" r:id="rId13"/>
+    <sheet name="QUAL_88" sheetId="82" r:id="rId14"/>
+    <sheet name="QUAL_89" sheetId="98" r:id="rId15"/>
+    <sheet name="QUAL_90" sheetId="83" r:id="rId16"/>
+    <sheet name="QUAL_91" sheetId="84" r:id="rId17"/>
+    <sheet name="QUAL_92" sheetId="99" r:id="rId18"/>
+    <sheet name="QUAL_93" sheetId="85" r:id="rId19"/>
+    <sheet name="QUAL_94" sheetId="86" r:id="rId20"/>
+    <sheet name="QUAL_95" sheetId="100" r:id="rId21"/>
+    <sheet name="QUAL_96" sheetId="87" r:id="rId22"/>
+    <sheet name="QUAL_97" sheetId="88" r:id="rId23"/>
+    <sheet name="QUAL_98" sheetId="101" r:id="rId24"/>
+    <sheet name="QUAL_99" sheetId="89" r:id="rId25"/>
+    <sheet name="QUAL_100" sheetId="90" r:id="rId26"/>
+    <sheet name="QUAL_101" sheetId="102" r:id="rId27"/>
+    <sheet name="QUAL_102" sheetId="91" r:id="rId28"/>
+    <sheet name="QUAL_103" sheetId="92" r:id="rId29"/>
+    <sheet name="QUAL_104" sheetId="103" r:id="rId30"/>
+    <sheet name="QUAL_105" sheetId="93" r:id="rId31"/>
+    <sheet name="JSBG_7_PH-(表层样PH分级)" sheetId="1" r:id="rId32"/>
+    <sheet name="JSBG_8_PH" sheetId="58" r:id="rId33"/>
+    <sheet name="JSBG_10_OM-(表层样OM分级)" sheetId="2" r:id="rId34"/>
+    <sheet name="JSBG_11_OM" sheetId="59" r:id="rId35"/>
+    <sheet name="JSBG_16_TN-(表层样TN分级)" sheetId="5" r:id="rId36"/>
+    <sheet name="JSBG_17_TN" sheetId="60" r:id="rId37"/>
+    <sheet name="JSBG_19_TP-(表层样TP分级)" sheetId="6" r:id="rId38"/>
+    <sheet name="JSBG_20_TP" sheetId="61" r:id="rId39"/>
+    <sheet name="JSBG_22_TK-(表层样TK分级)" sheetId="7" r:id="rId40"/>
+    <sheet name="JSBG_23_TK" sheetId="62" r:id="rId41"/>
+    <sheet name="JSBG_25_AP-(表层样AP分级)" sheetId="8" r:id="rId42"/>
+    <sheet name="JSBG_26_AP" sheetId="63" r:id="rId43"/>
+    <sheet name="JSBG_28_AK-(表层样AK分级)" sheetId="9" r:id="rId44"/>
+    <sheet name="JSBG_29_AK" sheetId="64" r:id="rId45"/>
+    <sheet name="JSBG_31_AS1-(表层样AS1分级)" sheetId="10" r:id="rId46"/>
+    <sheet name="JSBG_32_AS1" sheetId="65" r:id="rId47"/>
+    <sheet name="JSBG_34_AFE-(表层样AFE分级)" sheetId="11" r:id="rId48"/>
+    <sheet name="JSBG_35_AFE" sheetId="66" r:id="rId49"/>
+    <sheet name="JSBG_37_AMN-(表层样AMN分级)" sheetId="12" r:id="rId50"/>
+    <sheet name="JSBG_38_AMN" sheetId="67" r:id="rId51"/>
+    <sheet name="JSBG_40_ACU-(表层样ACU分级)" sheetId="13" r:id="rId52"/>
+    <sheet name="JSBG_41_ACU" sheetId="68" r:id="rId53"/>
+    <sheet name="JSBG_43_AZN-(表层样AZN分级)" sheetId="14" r:id="rId54"/>
+    <sheet name="JSBG_44_AZN" sheetId="69" r:id="rId55"/>
+    <sheet name="JSBG_46_AB-(表层样AB分级)" sheetId="4" r:id="rId56"/>
+    <sheet name="JSBG_47_AB" sheetId="70" r:id="rId57"/>
+    <sheet name="JSBG_49_AMO-(表层样AMO分级)" sheetId="15" r:id="rId58"/>
+    <sheet name="JSBG_50_AMO" sheetId="71" r:id="rId59"/>
+    <sheet name="JSBG_53_GZCHD-(表层样GZCHD分级)" sheetId="16" r:id="rId60"/>
+    <sheet name="JSBG_54_GZCHD" sheetId="72" r:id="rId61"/>
+    <sheet name="TRSX_111_PH-(利用类型pH面积分级)" sheetId="3" r:id="rId62"/>
+    <sheet name="TRSX_112_PH-(街道PH面积分级)" sheetId="18" r:id="rId63"/>
+    <sheet name="TRSX_113_PH-(土类PH面积分级)" sheetId="19" r:id="rId64"/>
+    <sheet name="TRSX_114_CEC-(利用类型ECE面积分级)" sheetId="20" r:id="rId65"/>
+    <sheet name="TRSX_115_CEC-(街道ECE面积分级)" sheetId="21" r:id="rId66"/>
+    <sheet name="TRSX_116_CEC-(土类ECE面积分级)" sheetId="22" r:id="rId67"/>
+    <sheet name="TRSX_117_TRRZPJZ-(利用类型容重面积分级)" sheetId="23" r:id="rId68"/>
+    <sheet name="TRSX_118_TRRZPJZ-(街道容重面积分级)" sheetId="24" r:id="rId69"/>
+    <sheet name="TRSX_119_TRRZPJZ-(土类容重面积分级)" sheetId="25" r:id="rId70"/>
+    <sheet name="TRSX_120_GZCHD" sheetId="26" r:id="rId71"/>
+    <sheet name="TRSX_121_GZCHD" sheetId="27" r:id="rId72"/>
+    <sheet name="TRSX_122_GZCHD" sheetId="28" r:id="rId73"/>
+    <sheet name="TRSX_123_TRZD" sheetId="29" r:id="rId74"/>
+    <sheet name="TRSX_124_TRZD" sheetId="30" r:id="rId75"/>
+    <sheet name="TRSX_125_TRZD" sheetId="31" r:id="rId76"/>
+    <sheet name="TRSX_126_TRSL" sheetId="32" r:id="rId77"/>
+    <sheet name="TRSX_127_TRSL" sheetId="33" r:id="rId78"/>
+    <sheet name="TRSX_128_TRSL" sheetId="34" r:id="rId79"/>
+    <sheet name="TRSX_129_TRFSL" sheetId="35" r:id="rId80"/>
+    <sheet name="TRSX_130_TRFSL" sheetId="36" r:id="rId81"/>
+    <sheet name="TRSX_131_TRFSL" sheetId="37" r:id="rId82"/>
+    <sheet name="TRSX_132_TRNL" sheetId="38" r:id="rId83"/>
+    <sheet name="TRSX_133_TRNL" sheetId="39" r:id="rId84"/>
+    <sheet name="TRSX_134_TRNL" sheetId="40" r:id="rId85"/>
+    <sheet name="TRSX_135_OM-(利用类型OM面积分级)" sheetId="17" r:id="rId86"/>
+    <sheet name="TRSX_136_OM" sheetId="41" r:id="rId87"/>
+    <sheet name="TRSX_137_OM" sheetId="42" r:id="rId88"/>
+    <sheet name="TRSX_138_TN" sheetId="43" r:id="rId89"/>
+    <sheet name="TRSX_139_TN" sheetId="44" r:id="rId90"/>
+    <sheet name="TRSX_140_TN" sheetId="45" r:id="rId91"/>
+    <sheet name="TRSX_141_TP" sheetId="46" r:id="rId92"/>
+    <sheet name="TRSX_142_TP" sheetId="47" r:id="rId93"/>
+    <sheet name="TRSX_143_TP" sheetId="48" r:id="rId94"/>
+    <sheet name="TRSX_144_TK" sheetId="49" r:id="rId95"/>
+    <sheet name="TRSX_145_TK" sheetId="50" r:id="rId96"/>
+    <sheet name="TRSX_146_TK" sheetId="51" r:id="rId97"/>
+    <sheet name="TRSX_147_AP" sheetId="52" r:id="rId98"/>
+    <sheet name="TRSX_148_AP" sheetId="53" r:id="rId99"/>
+    <sheet name="TRSX_149_AP" sheetId="54" r:id="rId100"/>
+    <sheet name="TRSX_150_AK" sheetId="55" r:id="rId101"/>
+    <sheet name="TRSX_151_AK" sheetId="56" r:id="rId102"/>
+    <sheet name="TRSX_152_AK" sheetId="57" r:id="rId103"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="264">
   <si>
     <t>XX县土地利用类型-适宜类评价面积占比表</t>
   </si>
@@ -166,6 +176,21 @@
     <t>面积（万亩）</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）一等地属性特征</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>有机质（g/kg）</t>
+  </si>
+  <si>
+    <t>有效磷（mg/kg）</t>
+  </si>
+  <si>
+    <t>速效钾（mg/kg）</t>
+  </si>
+  <si>
     <t>XX县各乡镇（街道）一等地产能水平</t>
   </si>
   <si>
@@ -175,24 +200,36 @@
     <t>XX县各乡镇（街道）二等地分布情况</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）二等地属性特征</t>
+  </si>
+  <si>
     <t>XX县各乡镇（街道）二等地产能水平</t>
   </si>
   <si>
     <t>XX县各乡镇（街道）三等地分布情况</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）三等地属性特征</t>
+  </si>
+  <si>
     <t>XX县各乡镇（街道）三等地产能水平</t>
   </si>
   <si>
     <t>XX县各乡镇（街道）四等地分布情况</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）四等地属性特征</t>
+  </si>
+  <si>
     <t>XX县各乡镇（街道）四等地产能水平</t>
   </si>
   <si>
     <t>XX县各乡镇（街道）五等地分布情况</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）五等地属性特征</t>
+  </si>
+  <si>
     <t>XX县各乡镇（街道）五等地产能水平</t>
   </si>
   <si>
@@ -205,24 +242,36 @@
     <t>XX县各乡镇（街道）七等地分布情况</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）七等地属性特征</t>
+  </si>
+  <si>
     <t>XX县各乡镇（街道）七等地产能水平</t>
   </si>
   <si>
     <t>XX县各乡镇（街道）八等地分布情况</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）八等地属性特征</t>
+  </si>
+  <si>
     <t>XX县各乡镇（街道）八等地产能水平</t>
   </si>
   <si>
     <t>XX县各乡镇（街道）九等地分布情况</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）九等地属性特征</t>
+  </si>
+  <si>
     <t>XX县各乡镇（街道）九等地产能水平</t>
   </si>
   <si>
     <t>XX县各乡镇（街道）十等地分布情况</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）十等地属性特征</t>
+  </si>
+  <si>
     <t>XX县各乡镇（街道）十等地产能水平</t>
   </si>
   <si>
@@ -260,9 +309,6 @@
   </si>
   <si>
     <t>XX县各乡镇（街道）土壤pH统计表</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>SOM分级</t>
@@ -2610,17 +2656,340 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2657,20 +3026,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+      <selection activeCell="A1" sqref="A1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2678,6 +3047,87 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
@@ -2688,7 +3138,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2704,20 +3154,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2754,20 +3204,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+      <selection activeCell="A1" sqref="A1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2775,6 +3225,87 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
@@ -2785,7 +3316,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2801,7 +3332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -2814,7 +3345,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2851,20 +3382,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2872,6 +3403,87 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
@@ -2882,7 +3494,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2898,20 +3510,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.6153846153846" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2948,54 +3563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3008,7 +3576,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3045,20 +3613,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3066,6 +3634,87 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
@@ -3076,7 +3725,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3092,23 +3741,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="13.6153846153846" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3145,7 +3791,135 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3158,7 +3932,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3195,20 +3969,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3216,6 +3990,87 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
@@ -3226,7 +4081,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3242,7 +4097,272 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.2307692307692" customWidth="1"/>
+    <col min="2" max="2" width="4.38461538461539" customWidth="1"/>
+    <col min="3" max="3" width="16.3846153846154" customWidth="1"/>
+    <col min="4" max="5" width="18.3846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -3260,7 +4380,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3270,30 +4390,30 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3302,7 +4422,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B4" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -3315,7 +4435,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B5" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -3348,7 +4468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -3361,7 +4481,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3374,19 +4494,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3422,7 +4542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -3441,7 +4561,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3451,30 +4571,30 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="14" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3483,7 +4603,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B4" s="15" t="str">
         <f t="shared" ref="B4:B6" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -3496,7 +4616,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B5" s="15" t="str">
         <f t="shared" si="0"/>
@@ -3529,7 +4649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -3542,7 +4662,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3555,19 +4675,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3603,7 +4723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -3616,7 +4736,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3626,47 +4746,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3676,7 +4796,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -3703,7 +4823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -3716,7 +4836,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3729,19 +4849,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3777,7 +4897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -3790,7 +4910,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3800,47 +4920,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3850,7 +4970,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -3877,7 +4997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -3890,7 +5010,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3903,19 +5023,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3959,7 +5079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -3972,7 +5092,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3990,7 +5110,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4006,7 +5126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -4019,7 +5139,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4029,47 +5149,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -4079,7 +5199,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -4106,7 +5226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -4119,7 +5239,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4132,19 +5252,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4180,7 +5300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -4193,7 +5313,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4203,47 +5323,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -4253,7 +5373,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -4280,7 +5400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -4293,7 +5413,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4306,19 +5426,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4354,7 +5474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -4367,7 +5487,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4377,47 +5497,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -4427,7 +5547,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -4454,7 +5574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -4467,7 +5587,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4480,19 +5600,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4528,7 +5648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -4541,7 +5661,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4551,47 +5671,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -4601,7 +5721,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -4628,7 +5748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -4641,7 +5761,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4654,19 +5774,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4702,7 +5822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -4715,7 +5835,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4725,47 +5845,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -4775,7 +5895,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -4802,7 +5922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -4815,7 +5935,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4828,19 +5948,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4876,7 +5996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -4889,7 +6009,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -4926,7 +6046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -4939,7 +6059,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4949,47 +6069,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -4999,7 +6119,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -5026,7 +6146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -5039,7 +6159,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5052,19 +6172,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5100,7 +6220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -5113,7 +6233,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5123,47 +6243,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -5173,7 +6293,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -5200,7 +6320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -5213,7 +6333,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5226,19 +6346,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5274,7 +6394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -5287,7 +6407,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5297,47 +6417,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -5347,7 +6467,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -5374,7 +6494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -5387,7 +6507,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5400,19 +6520,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5448,7 +6568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -5461,7 +6581,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5471,47 +6591,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -5521,7 +6641,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -5548,7 +6668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -5561,7 +6681,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5574,19 +6694,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5622,7 +6742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -5635,7 +6755,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5645,47 +6765,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -5695,7 +6815,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -5722,7 +6842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -5735,7 +6855,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5748,19 +6868,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5796,20 +6916,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.2307692307692" customWidth="1"/>
+    <col min="2" max="2" width="4.38461538461539" customWidth="1"/>
+    <col min="3" max="3" width="16.3846153846154" customWidth="1"/>
+    <col min="4" max="5" width="18.3846153846154" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5817,23 +6943,57 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -5843,7 +7003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -5856,7 +7016,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5866,47 +7026,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -5916,7 +7076,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -5943,7 +7103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -5959,7 +7119,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5972,19 +7132,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6028,7 +7188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6047,7 +7207,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6057,40 +7217,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6103,7 +7263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6116,7 +7276,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6129,37 +7289,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6172,7 +7332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6185,7 +7345,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6195,40 +7355,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6241,7 +7401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6261,7 +7421,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6271,40 +7431,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6317,7 +7477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6330,7 +7490,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6343,37 +7503,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6386,7 +7546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6399,7 +7559,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6409,40 +7569,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6455,7 +7615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6473,7 +7633,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6483,40 +7643,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6529,7 +7689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6542,7 +7702,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6555,37 +7715,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6598,57 +7758,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+        <v>25</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6661,7 +7818,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6671,40 +7828,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6717,7 +7874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6730,7 +7887,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6740,40 +7897,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -6786,7 +7943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6799,7 +7956,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6812,37 +7969,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -6855,7 +8012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6868,7 +8025,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6878,40 +8035,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -6924,7 +8081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G8"/>
@@ -6937,7 +8094,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -6948,25 +8105,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7015,7 +8172,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -7033,7 +8190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G3"/>
@@ -7046,7 +8203,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -7060,22 +8217,22 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -7087,7 +8244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G3"/>
@@ -7100,7 +8257,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -7111,25 +8268,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -7141,7 +8298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7154,7 +8311,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7164,40 +8321,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -7210,7 +8367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7223,7 +8380,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7236,37 +8393,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -7279,7 +8436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7292,7 +8449,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7302,40 +8459,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -7348,7 +8505,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -7361,7 +8568,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7369,33 +8576,48 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -7408,7 +8630,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7417,34 +8639,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -7457,7 +8679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -7470,7 +8692,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7479,34 +8701,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -7519,7 +8741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -7532,7 +8754,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7541,34 +8763,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -7581,7 +8803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -7594,7 +8816,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7603,34 +8825,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -7643,20 +8865,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7665,34 +8887,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -7705,69 +8927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F8"/>
@@ -7780,7 +8940,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7790,40 +8950,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7868,7 +9028,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -7886,7 +9046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7899,7 +9059,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7912,37 +9072,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -7955,7 +9115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7968,7 +9128,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7978,40 +9138,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -8024,7 +9184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8037,7 +9197,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8047,40 +9207,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -8093,7 +9253,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8105,58 +9346,8 @@
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8169,37 +9360,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -8212,7 +9403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8225,7 +9416,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8235,40 +9426,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -8281,7 +9472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8294,7 +9485,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8304,40 +9495,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -8350,7 +9541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8363,7 +9554,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8376,37 +9567,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -8419,7 +9610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8432,7 +9623,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8442,40 +9633,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -8488,7 +9679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8501,7 +9692,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8511,40 +9702,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -8557,7 +9748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8570,7 +9761,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8583,37 +9774,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -8626,7 +9817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8639,7 +9830,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8649,40 +9840,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -8695,7 +9886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8708,7 +9899,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8718,40 +9909,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -8764,7 +9955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8777,7 +9968,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8790,37 +9981,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -8831,327 +10022,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/config/cfg_template.xlsx
+++ b/config/cfg_template.xlsx
@@ -8,117 +8,118 @@
   </bookViews>
   <sheets>
     <sheet name="SUTI_66" sheetId="73" r:id="rId1"/>
-    <sheet name="QUAL_73" sheetId="106" r:id="rId2"/>
-    <sheet name="QUAL_72" sheetId="105" r:id="rId3"/>
-    <sheet name="QUAL_76" sheetId="74" r:id="rId4"/>
-    <sheet name="QUAL_77" sheetId="94" r:id="rId5"/>
-    <sheet name="QUAL_78" sheetId="75" r:id="rId6"/>
-    <sheet name="QUAL_79" sheetId="76" r:id="rId7"/>
-    <sheet name="QUAL_80" sheetId="95" r:id="rId8"/>
-    <sheet name="QUAL_81" sheetId="77" r:id="rId9"/>
-    <sheet name="QUAL_82" sheetId="78" r:id="rId10"/>
-    <sheet name="QUAL_83" sheetId="96" r:id="rId11"/>
-    <sheet name="QUAL_84" sheetId="79" r:id="rId12"/>
-    <sheet name="QUAL_85" sheetId="80" r:id="rId13"/>
-    <sheet name="QUAL_86" sheetId="97" r:id="rId14"/>
-    <sheet name="QUAL_87" sheetId="81" r:id="rId15"/>
-    <sheet name="QUAL_88" sheetId="82" r:id="rId16"/>
-    <sheet name="QUAL_89" sheetId="98" r:id="rId17"/>
-    <sheet name="QUAL_90" sheetId="83" r:id="rId18"/>
-    <sheet name="QUAL_91" sheetId="84" r:id="rId19"/>
-    <sheet name="QUAL_92" sheetId="99" r:id="rId20"/>
-    <sheet name="QUAL_93" sheetId="85" r:id="rId21"/>
-    <sheet name="QUAL_94" sheetId="86" r:id="rId22"/>
-    <sheet name="QUAL_95" sheetId="100" r:id="rId23"/>
-    <sheet name="QUAL_96" sheetId="87" r:id="rId24"/>
-    <sheet name="QUAL_97" sheetId="88" r:id="rId25"/>
-    <sheet name="QUAL_98" sheetId="101" r:id="rId26"/>
-    <sheet name="QUAL_99" sheetId="89" r:id="rId27"/>
-    <sheet name="QUAL_100" sheetId="90" r:id="rId28"/>
-    <sheet name="QUAL_101" sheetId="102" r:id="rId29"/>
-    <sheet name="QUAL_102" sheetId="91" r:id="rId30"/>
-    <sheet name="QUAL_103" sheetId="92" r:id="rId31"/>
-    <sheet name="QUAL_104" sheetId="103" r:id="rId32"/>
-    <sheet name="QUAL_105" sheetId="93" r:id="rId33"/>
-    <sheet name="JSBG_7_PH-(表层样PH分级)" sheetId="1" r:id="rId34"/>
-    <sheet name="JSBG_8_PH" sheetId="58" r:id="rId35"/>
-    <sheet name="JSBG_10_OM-(表层样OM分级)" sheetId="2" r:id="rId36"/>
-    <sheet name="JSBG_11_OM" sheetId="59" r:id="rId37"/>
-    <sheet name="JSBG_16_TN-(表层样TN分级)" sheetId="5" r:id="rId38"/>
-    <sheet name="JSBG_17_TN" sheetId="60" r:id="rId39"/>
-    <sheet name="JSBG_19_TP-(表层样TP分级)" sheetId="6" r:id="rId40"/>
-    <sheet name="JSBG_20_TP" sheetId="61" r:id="rId41"/>
-    <sheet name="JSBG_22_TK-(表层样TK分级)" sheetId="7" r:id="rId42"/>
-    <sheet name="JSBG_23_TK" sheetId="62" r:id="rId43"/>
-    <sheet name="JSBG_25_AP-(表层样AP分级)" sheetId="8" r:id="rId44"/>
-    <sheet name="JSBG_26_AP" sheetId="63" r:id="rId45"/>
-    <sheet name="JSBG_28_AK-(表层样AK分级)" sheetId="9" r:id="rId46"/>
-    <sheet name="JSBG_29_AK" sheetId="64" r:id="rId47"/>
-    <sheet name="JSBG_31_AS1-(表层样AS1分级)" sheetId="10" r:id="rId48"/>
-    <sheet name="JSBG_32_AS1" sheetId="65" r:id="rId49"/>
-    <sheet name="JSBG_34_AFE-(表层样AFE分级)" sheetId="11" r:id="rId50"/>
-    <sheet name="JSBG_35_AFE" sheetId="66" r:id="rId51"/>
-    <sheet name="JSBG_37_AMN-(表层样AMN分级)" sheetId="12" r:id="rId52"/>
-    <sheet name="JSBG_38_AMN" sheetId="67" r:id="rId53"/>
-    <sheet name="JSBG_40_ACU-(表层样ACU分级)" sheetId="13" r:id="rId54"/>
-    <sheet name="JSBG_41_ACU" sheetId="68" r:id="rId55"/>
-    <sheet name="JSBG_43_AZN-(表层样AZN分级)" sheetId="14" r:id="rId56"/>
-    <sheet name="JSBG_44_AZN" sheetId="69" r:id="rId57"/>
-    <sheet name="JSBG_46_AB-(表层样AB分级)" sheetId="4" r:id="rId58"/>
-    <sheet name="JSBG_47_AB" sheetId="70" r:id="rId59"/>
-    <sheet name="JSBG_49_AMO-(表层样AMO分级)" sheetId="15" r:id="rId60"/>
-    <sheet name="JSBG_50_AMO" sheetId="71" r:id="rId61"/>
-    <sheet name="JSBG_53_GZCHD-(表层样GZCHD分级)" sheetId="16" r:id="rId62"/>
-    <sheet name="JSBG_54_GZCHD" sheetId="72" r:id="rId63"/>
-    <sheet name="TRSX_111_PH-(利用类型pH面积分级)" sheetId="3" r:id="rId64"/>
-    <sheet name="TRSX_112_PH-(街道PH面积分级)" sheetId="18" r:id="rId65"/>
-    <sheet name="TRSX_113_PH-(土类PH面积分级)" sheetId="19" r:id="rId66"/>
-    <sheet name="TRSX_114_CEC-(利用类型ECE面积分级)" sheetId="20" r:id="rId67"/>
-    <sheet name="TRSX_115_CEC-(街道ECE面积分级)" sheetId="21" r:id="rId68"/>
-    <sheet name="TRSX_116_CEC-(土类ECE面积分级)" sheetId="22" r:id="rId69"/>
-    <sheet name="TRSX_117_TRRZPJZ-(利用类型容重面积分级)" sheetId="23" r:id="rId70"/>
-    <sheet name="TRSX_118_TRRZPJZ-(街道容重面积分级)" sheetId="24" r:id="rId71"/>
-    <sheet name="TRSX_119_TRRZPJZ-(土类容重面积分级)" sheetId="25" r:id="rId72"/>
-    <sheet name="TRSX_120_GZCHD" sheetId="26" r:id="rId73"/>
-    <sheet name="TRSX_121_GZCHD" sheetId="27" r:id="rId74"/>
-    <sheet name="TRSX_122_GZCHD" sheetId="28" r:id="rId75"/>
-    <sheet name="TRSX_123_TRZD" sheetId="29" r:id="rId76"/>
-    <sheet name="TRSX_124_TRZD" sheetId="30" r:id="rId77"/>
-    <sheet name="TRSX_125_TRZD" sheetId="31" r:id="rId78"/>
-    <sheet name="TRSX_126_TRSL" sheetId="32" r:id="rId79"/>
-    <sheet name="TRSX_127_TRSL" sheetId="33" r:id="rId80"/>
-    <sheet name="TRSX_128_TRSL" sheetId="34" r:id="rId81"/>
-    <sheet name="TRSX_129_TRFSL" sheetId="35" r:id="rId82"/>
-    <sheet name="TRSX_130_TRFSL" sheetId="36" r:id="rId83"/>
-    <sheet name="TRSX_131_TRFSL" sheetId="37" r:id="rId84"/>
-    <sheet name="TRSX_132_TRNL" sheetId="38" r:id="rId85"/>
-    <sheet name="TRSX_133_TRNL" sheetId="39" r:id="rId86"/>
-    <sheet name="TRSX_134_TRNL" sheetId="40" r:id="rId87"/>
-    <sheet name="TRSX_135_OM-(利用类型OM面积分级)" sheetId="17" r:id="rId88"/>
-    <sheet name="TRSX_136_OM" sheetId="41" r:id="rId89"/>
-    <sheet name="TRSX_137_OM" sheetId="42" r:id="rId90"/>
-    <sheet name="TRSX_138_TN" sheetId="43" r:id="rId91"/>
-    <sheet name="TRSX_139_TN" sheetId="44" r:id="rId92"/>
-    <sheet name="TRSX_140_TN" sheetId="45" r:id="rId93"/>
-    <sheet name="TRSX_141_TP" sheetId="46" r:id="rId94"/>
-    <sheet name="TRSX_142_TP" sheetId="47" r:id="rId95"/>
-    <sheet name="TRSX_143_TP" sheetId="48" r:id="rId96"/>
-    <sheet name="TRSX_144_TK" sheetId="49" r:id="rId97"/>
-    <sheet name="TRSX_145_TK" sheetId="50" r:id="rId98"/>
-    <sheet name="TRSX_146_TK" sheetId="51" r:id="rId99"/>
-    <sheet name="TRSX_147_AP" sheetId="52" r:id="rId100"/>
-    <sheet name="TRSX_148_AP" sheetId="53" r:id="rId101"/>
-    <sheet name="TRSX_149_AP" sheetId="54" r:id="rId102"/>
-    <sheet name="TRSX_150_AK" sheetId="55" r:id="rId103"/>
-    <sheet name="TRSX_151_AK" sheetId="56" r:id="rId104"/>
-    <sheet name="TRSX_152_AK" sheetId="57" r:id="rId105"/>
+    <sheet name="QUAL_74" sheetId="107" r:id="rId2"/>
+    <sheet name="QUAL_73" sheetId="106" r:id="rId3"/>
+    <sheet name="QUAL_72" sheetId="105" r:id="rId4"/>
+    <sheet name="QUAL_76" sheetId="74" r:id="rId5"/>
+    <sheet name="QUAL_77" sheetId="94" r:id="rId6"/>
+    <sheet name="QUAL_78" sheetId="75" r:id="rId7"/>
+    <sheet name="QUAL_79" sheetId="76" r:id="rId8"/>
+    <sheet name="QUAL_80" sheetId="95" r:id="rId9"/>
+    <sheet name="QUAL_81" sheetId="77" r:id="rId10"/>
+    <sheet name="QUAL_82" sheetId="78" r:id="rId11"/>
+    <sheet name="QUAL_83" sheetId="96" r:id="rId12"/>
+    <sheet name="QUAL_84" sheetId="79" r:id="rId13"/>
+    <sheet name="QUAL_85" sheetId="80" r:id="rId14"/>
+    <sheet name="QUAL_86" sheetId="97" r:id="rId15"/>
+    <sheet name="QUAL_87" sheetId="81" r:id="rId16"/>
+    <sheet name="QUAL_88" sheetId="82" r:id="rId17"/>
+    <sheet name="QUAL_89" sheetId="98" r:id="rId18"/>
+    <sheet name="QUAL_90" sheetId="83" r:id="rId19"/>
+    <sheet name="QUAL_91" sheetId="84" r:id="rId20"/>
+    <sheet name="QUAL_92" sheetId="99" r:id="rId21"/>
+    <sheet name="QUAL_93" sheetId="85" r:id="rId22"/>
+    <sheet name="QUAL_94" sheetId="86" r:id="rId23"/>
+    <sheet name="QUAL_95" sheetId="100" r:id="rId24"/>
+    <sheet name="QUAL_96" sheetId="87" r:id="rId25"/>
+    <sheet name="QUAL_97" sheetId="88" r:id="rId26"/>
+    <sheet name="QUAL_98" sheetId="101" r:id="rId27"/>
+    <sheet name="QUAL_99" sheetId="89" r:id="rId28"/>
+    <sheet name="QUAL_100" sheetId="90" r:id="rId29"/>
+    <sheet name="QUAL_101" sheetId="102" r:id="rId30"/>
+    <sheet name="QUAL_102" sheetId="91" r:id="rId31"/>
+    <sheet name="QUAL_103" sheetId="92" r:id="rId32"/>
+    <sheet name="QUAL_104" sheetId="103" r:id="rId33"/>
+    <sheet name="QUAL_105" sheetId="93" r:id="rId34"/>
+    <sheet name="JSBG_7_PH-(表层样PH分级)" sheetId="1" r:id="rId35"/>
+    <sheet name="JSBG_8_PH" sheetId="58" r:id="rId36"/>
+    <sheet name="JSBG_10_OM-(表层样OM分级)" sheetId="2" r:id="rId37"/>
+    <sheet name="JSBG_11_OM" sheetId="59" r:id="rId38"/>
+    <sheet name="JSBG_16_TN-(表层样TN分级)" sheetId="5" r:id="rId39"/>
+    <sheet name="JSBG_17_TN" sheetId="60" r:id="rId40"/>
+    <sheet name="JSBG_19_TP-(表层样TP分级)" sheetId="6" r:id="rId41"/>
+    <sheet name="JSBG_20_TP" sheetId="61" r:id="rId42"/>
+    <sheet name="JSBG_22_TK-(表层样TK分级)" sheetId="7" r:id="rId43"/>
+    <sheet name="JSBG_23_TK" sheetId="62" r:id="rId44"/>
+    <sheet name="JSBG_25_AP-(表层样AP分级)" sheetId="8" r:id="rId45"/>
+    <sheet name="JSBG_26_AP" sheetId="63" r:id="rId46"/>
+    <sheet name="JSBG_28_AK-(表层样AK分级)" sheetId="9" r:id="rId47"/>
+    <sheet name="JSBG_29_AK" sheetId="64" r:id="rId48"/>
+    <sheet name="JSBG_31_AS1-(表层样AS1分级)" sheetId="10" r:id="rId49"/>
+    <sheet name="JSBG_32_AS1" sheetId="65" r:id="rId50"/>
+    <sheet name="JSBG_34_AFE-(表层样AFE分级)" sheetId="11" r:id="rId51"/>
+    <sheet name="JSBG_35_AFE" sheetId="66" r:id="rId52"/>
+    <sheet name="JSBG_37_AMN-(表层样AMN分级)" sheetId="12" r:id="rId53"/>
+    <sheet name="JSBG_38_AMN" sheetId="67" r:id="rId54"/>
+    <sheet name="JSBG_40_ACU-(表层样ACU分级)" sheetId="13" r:id="rId55"/>
+    <sheet name="JSBG_41_ACU" sheetId="68" r:id="rId56"/>
+    <sheet name="JSBG_43_AZN-(表层样AZN分级)" sheetId="14" r:id="rId57"/>
+    <sheet name="JSBG_44_AZN" sheetId="69" r:id="rId58"/>
+    <sheet name="JSBG_46_AB-(表层样AB分级)" sheetId="4" r:id="rId59"/>
+    <sheet name="JSBG_47_AB" sheetId="70" r:id="rId60"/>
+    <sheet name="JSBG_49_AMO-(表层样AMO分级)" sheetId="15" r:id="rId61"/>
+    <sheet name="JSBG_50_AMO" sheetId="71" r:id="rId62"/>
+    <sheet name="JSBG_53_GZCHD-(表层样GZCHD分级)" sheetId="16" r:id="rId63"/>
+    <sheet name="JSBG_54_GZCHD" sheetId="72" r:id="rId64"/>
+    <sheet name="TRSX_111_PH-(利用类型pH面积分级)" sheetId="3" r:id="rId65"/>
+    <sheet name="TRSX_112_PH-(街道PH面积分级)" sheetId="18" r:id="rId66"/>
+    <sheet name="TRSX_113_PH-(土类PH面积分级)" sheetId="19" r:id="rId67"/>
+    <sheet name="TRSX_114_CEC-(利用类型ECE面积分级)" sheetId="20" r:id="rId68"/>
+    <sheet name="TRSX_115_CEC-(街道ECE面积分级)" sheetId="21" r:id="rId69"/>
+    <sheet name="TRSX_116_CEC-(土类ECE面积分级)" sheetId="22" r:id="rId70"/>
+    <sheet name="TRSX_117_TRRZPJZ-(利用类型容重面积分级)" sheetId="23" r:id="rId71"/>
+    <sheet name="TRSX_118_TRRZPJZ-(街道容重面积分级)" sheetId="24" r:id="rId72"/>
+    <sheet name="TRSX_119_TRRZPJZ-(土类容重面积分级)" sheetId="25" r:id="rId73"/>
+    <sheet name="TRSX_120_GZCHD" sheetId="26" r:id="rId74"/>
+    <sheet name="TRSX_121_GZCHD" sheetId="27" r:id="rId75"/>
+    <sheet name="TRSX_122_GZCHD" sheetId="28" r:id="rId76"/>
+    <sheet name="TRSX_123_TRZD" sheetId="29" r:id="rId77"/>
+    <sheet name="TRSX_124_TRZD" sheetId="30" r:id="rId78"/>
+    <sheet name="TRSX_125_TRZD" sheetId="31" r:id="rId79"/>
+    <sheet name="TRSX_126_TRSL" sheetId="32" r:id="rId80"/>
+    <sheet name="TRSX_127_TRSL" sheetId="33" r:id="rId81"/>
+    <sheet name="TRSX_128_TRSL" sheetId="34" r:id="rId82"/>
+    <sheet name="TRSX_129_TRFSL" sheetId="35" r:id="rId83"/>
+    <sheet name="TRSX_130_TRFSL" sheetId="36" r:id="rId84"/>
+    <sheet name="TRSX_131_TRFSL" sheetId="37" r:id="rId85"/>
+    <sheet name="TRSX_132_TRNL" sheetId="38" r:id="rId86"/>
+    <sheet name="TRSX_133_TRNL" sheetId="39" r:id="rId87"/>
+    <sheet name="TRSX_134_TRNL" sheetId="40" r:id="rId88"/>
+    <sheet name="TRSX_135_OM-(利用类型OM面积分级)" sheetId="17" r:id="rId89"/>
+    <sheet name="TRSX_136_OM" sheetId="41" r:id="rId90"/>
+    <sheet name="TRSX_137_OM" sheetId="42" r:id="rId91"/>
+    <sheet name="TRSX_138_TN" sheetId="43" r:id="rId92"/>
+    <sheet name="TRSX_139_TN" sheetId="44" r:id="rId93"/>
+    <sheet name="TRSX_140_TN" sheetId="45" r:id="rId94"/>
+    <sheet name="TRSX_141_TP" sheetId="46" r:id="rId95"/>
+    <sheet name="TRSX_142_TP" sheetId="47" r:id="rId96"/>
+    <sheet name="TRSX_143_TP" sheetId="48" r:id="rId97"/>
+    <sheet name="TRSX_144_TK" sheetId="49" r:id="rId98"/>
+    <sheet name="TRSX_145_TK" sheetId="50" r:id="rId99"/>
+    <sheet name="TRSX_146_TK" sheetId="51" r:id="rId100"/>
+    <sheet name="TRSX_147_AP" sheetId="52" r:id="rId101"/>
+    <sheet name="TRSX_148_AP" sheetId="53" r:id="rId102"/>
+    <sheet name="TRSX_149_AP" sheetId="54" r:id="rId103"/>
+    <sheet name="TRSX_150_AK" sheetId="55" r:id="rId104"/>
+    <sheet name="TRSX_151_AK" sheetId="56" r:id="rId105"/>
+    <sheet name="TRSX_152_AK" sheetId="57" r:id="rId106"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="291">
   <si>
     <t>XX县土地利用类型-适宜类评价面积占比表</t>
   </si>
@@ -169,19 +170,55 @@
     <t>草地</t>
   </si>
   <si>
+    <t>XX县各乡镇（街道）耕地质量等级面积分布表</t>
+  </si>
+  <si>
+    <t>乡镇/街道</t>
+  </si>
+  <si>
+    <t>耕地质量等级</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>一等地</t>
+  </si>
+  <si>
+    <t>二等地</t>
+  </si>
+  <si>
+    <t>三等地</t>
+  </si>
+  <si>
+    <t>四等地</t>
+  </si>
+  <si>
+    <t>五等地</t>
+  </si>
+  <si>
+    <t>六等地</t>
+  </si>
+  <si>
+    <t>七等地</t>
+  </si>
+  <si>
+    <t>八等地</t>
+  </si>
+  <si>
+    <t>九等地</t>
+  </si>
+  <si>
+    <t>十等地</t>
+  </si>
+  <si>
     <t>XX县各乡镇（街道）耕地评价综合指数及质量等级表</t>
   </si>
   <si>
-    <t>乡镇/街道</t>
-  </si>
-  <si>
     <t>综合指数</t>
   </si>
   <si>
     <t>平均等级</t>
-  </si>
-  <si>
-    <t>全县</t>
   </si>
   <si>
     <t>XX县耕地质量等级面积及其占比</t>
@@ -813,9 +850,6 @@
   </si>
   <si>
     <t>黏土</t>
-  </si>
-  <si>
-    <t>合计</t>
   </si>
   <si>
     <t>XX县乡镇（街道）土壤质地面积统计表</t>
@@ -1362,7 +1396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1442,6 +1476,28 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1594,7 +1650,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1606,34 +1662,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1718,7 +1774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1785,6 +1841,36 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1803,17 +1889,14 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2355,7 +2438,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2373,17 +2456,17 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -2397,278 +2480,278 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="27"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="25" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="29"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="25" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="29"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="25" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="29"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="27"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3"/>
@@ -2676,11 +2759,11 @@
       <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2709,6 +2792,56 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2718,8 +2851,491 @@
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2739,7 +3355,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -2756,455 +3372,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3251,7 +3453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -3264,7 +3466,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3282,7 +3484,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3298,7 +3500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3311,7 +3513,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3331,7 +3533,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -3348,7 +3550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -3361,7 +3563,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3373,16 +3575,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3429,7 +3631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -3442,7 +3644,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3460,7 +3662,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3476,7 +3678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3489,7 +3691,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3509,7 +3711,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -3526,7 +3728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -3539,7 +3741,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3551,16 +3753,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3607,7 +3809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -3620,7 +3822,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3638,7 +3840,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3654,7 +3856,103 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3667,7 +3965,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3687,7 +3985,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -3704,146 +4002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="10.2307692307692" customWidth="1"/>
-    <col min="2" max="3" width="9.38461538461539" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -3856,7 +4015,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3868,16 +4027,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3924,7 +4083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -3937,7 +4096,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3955,7 +4114,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3971,7 +4130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3984,7 +4143,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -4004,7 +4163,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -4021,7 +4180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -4034,7 +4193,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4046,16 +4205,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4102,7 +4261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -4115,7 +4274,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4133,7 +4292,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4149,7 +4308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -4162,7 +4321,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -4182,7 +4341,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -4199,7 +4358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -4212,7 +4371,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4224,16 +4383,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4280,7 +4439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -4293,7 +4452,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4311,7 +4470,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4327,7 +4486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -4340,7 +4499,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -4360,7 +4519,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -4377,7 +4536,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="40.5384615384615" customWidth="1"/>
+    <col min="2" max="2" width="15.5384615384615" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -4390,7 +4592,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4402,16 +4604,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4458,153 +4660,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F7"/>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4615,7 +4707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -4628,7 +4720,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -4648,7 +4740,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -4665,7 +4757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -4678,7 +4770,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4690,16 +4782,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4746,7 +4838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -4759,7 +4851,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4777,7 +4869,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4793,7 +4885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -4811,7 +4903,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -4821,30 +4913,30 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -4853,7 +4945,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B4" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -4866,7 +4958,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B5" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -4899,7 +4991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -4912,7 +5004,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4925,19 +5017,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4973,7 +5065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -4992,7 +5084,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -5002,30 +5094,30 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="14" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5034,7 +5126,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B4" s="15" t="str">
         <f t="shared" ref="B4:B6" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -5047,7 +5139,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B5" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5080,7 +5172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -5093,7 +5185,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5106,19 +5198,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5154,7 +5246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -5167,7 +5259,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5177,47 +5269,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -5227,7 +5319,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -5254,20 +5346,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5275,24 +5367,134 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5328,60 +5530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="13.6153846153846" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -5394,7 +5543,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5404,47 +5553,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -5454,7 +5603,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -5481,7 +5630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -5494,7 +5643,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5507,19 +5656,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5563,7 +5712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -5576,7 +5725,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5586,47 +5735,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -5636,7 +5785,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -5663,7 +5812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -5676,7 +5825,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5689,19 +5838,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5737,7 +5886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -5750,7 +5899,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5760,47 +5909,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -5810,7 +5959,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -5837,7 +5986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -5850,7 +5999,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5863,19 +6012,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5911,7 +6060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -5924,7 +6073,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5934,47 +6083,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -5984,7 +6133,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -6011,7 +6160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -6024,7 +6173,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6037,19 +6186,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6085,7 +6234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -6098,7 +6247,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6108,47 +6257,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -6158,7 +6307,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -6185,7 +6334,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.6153846153846" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -6198,7 +6400,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6211,19 +6413,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6259,7 +6461,803 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="31" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -6278,7 +7276,7 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6290,16 +7288,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6346,20 +7344,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6367,124 +7365,24 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6520,7 +7418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -6533,7 +7431,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6543,47 +7441,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -6593,7 +7491,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -6620,20 +7518,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6646,19 +7544,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6694,20 +7592,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6717,47 +7615,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -6767,7 +7665,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -6783,7 +7681,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6794,20 +7692,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="21.4711538461538" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6820,19 +7721,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6859,752 +7760,6 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="21.4711538461538" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" ht="31" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
@@ -7622,7 +7777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7641,7 +7796,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7651,40 +7806,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -7697,7 +7852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7710,7 +7865,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7723,37 +7878,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -7766,7 +7921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7779,7 +7934,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7789,40 +7944,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -7835,7 +7990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7855,7 +8010,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7865,40 +8020,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -7911,7 +8066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7924,7 +8079,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7937,37 +8092,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -7980,7 +8135,54 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -7993,7 +8195,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8003,40 +8205,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -8049,57 +8251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8117,7 +8269,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8127,40 +8279,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -8173,7 +8325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8186,7 +8338,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8199,37 +8351,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -8242,7 +8394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8255,7 +8407,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8265,40 +8417,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -8311,7 +8463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8324,7 +8476,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8334,40 +8486,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -8380,7 +8532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8393,7 +8545,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8406,37 +8558,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -8449,7 +8601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8462,7 +8614,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8472,40 +8624,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -8518,7 +8670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G8"/>
@@ -8531,7 +8683,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8542,25 +8694,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8609,7 +8761,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -8627,7 +8779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G3"/>
@@ -8640,7 +8792,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8654,22 +8806,22 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -8681,7 +8833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G3"/>
@@ -8694,7 +8846,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8705,25 +8857,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -8735,7 +8887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8747,8 +8899,58 @@
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8758,40 +8960,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -8804,7 +9006,636 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -8823,7 +9654,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8835,16 +9666,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8891,7 +9722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -8904,7 +9735,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8917,37 +9748,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -8960,20 +9791,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8983,40 +9814,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -9029,392 +9860,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9424,91 +9883,41 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>253</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>254</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9520,7 +9929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -9533,7 +9942,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9546,37 +9955,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>253</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>254</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>256</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -9589,67 +9998,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9659,40 +10021,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>253</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>254</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>256</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -9705,7 +10067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -9718,7 +10080,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9728,40 +10090,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -9774,7 +10136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -9787,7 +10149,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9800,37 +10162,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -9843,7 +10205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -9856,7 +10218,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9866,40 +10228,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -9912,7 +10274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -9925,7 +10287,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9935,40 +10297,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>278</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>279</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>280</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -9981,7 +10343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -9994,7 +10356,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10007,37 +10369,37 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>278</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>279</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>280</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -10048,280 +10410,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/config/cfg_template.xlsx
+++ b/config/cfg_template.xlsx
@@ -4,137 +4,141 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25740" windowHeight="10460" activeTab="2"/>
+    <workbookView windowWidth="25740" windowHeight="10460" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="SUITI_62" sheetId="119" r:id="rId1"/>
     <sheet name="SUITI_63" sheetId="120" r:id="rId2"/>
     <sheet name="SUITI_64" sheetId="121" r:id="rId3"/>
     <sheet name="SUITI_65" sheetId="122" r:id="rId4"/>
-    <sheet name="SUTI_66" sheetId="73" r:id="rId5"/>
-    <sheet name="SUITI_56" sheetId="109" r:id="rId6"/>
-    <sheet name="SUITI_57" sheetId="110" r:id="rId7"/>
-    <sheet name="SUITI_58" sheetId="111" r:id="rId8"/>
-    <sheet name="SUITI_59" sheetId="112" r:id="rId9"/>
-    <sheet name="SUITI_60" sheetId="113" r:id="rId10"/>
-    <sheet name="SUITI_61" sheetId="114" r:id="rId11"/>
-    <sheet name="SUITI_164" sheetId="115" r:id="rId12"/>
-    <sheet name="SUITI_165" sheetId="116" r:id="rId13"/>
-    <sheet name="SUITI_166" sheetId="117" r:id="rId14"/>
-    <sheet name="SUITI_167" sheetId="118" r:id="rId15"/>
-    <sheet name="QUAL_75" sheetId="108" r:id="rId16"/>
-    <sheet name="QUAL_74" sheetId="107" r:id="rId17"/>
-    <sheet name="QUAL_73" sheetId="106" r:id="rId18"/>
-    <sheet name="QUAL_72" sheetId="105" r:id="rId19"/>
-    <sheet name="QUAL_76" sheetId="74" r:id="rId20"/>
-    <sheet name="QUAL_77" sheetId="94" r:id="rId21"/>
-    <sheet name="QUAL_78" sheetId="75" r:id="rId22"/>
-    <sheet name="QUAL_79" sheetId="76" r:id="rId23"/>
-    <sheet name="QUAL_80" sheetId="95" r:id="rId24"/>
-    <sheet name="QUAL_81" sheetId="77" r:id="rId25"/>
-    <sheet name="QUAL_82" sheetId="78" r:id="rId26"/>
-    <sheet name="QUAL_83" sheetId="96" r:id="rId27"/>
-    <sheet name="QUAL_84" sheetId="79" r:id="rId28"/>
-    <sheet name="QUAL_85" sheetId="80" r:id="rId29"/>
-    <sheet name="QUAL_86" sheetId="97" r:id="rId30"/>
-    <sheet name="QUAL_87" sheetId="81" r:id="rId31"/>
-    <sheet name="QUAL_88" sheetId="82" r:id="rId32"/>
-    <sheet name="QUAL_89" sheetId="98" r:id="rId33"/>
-    <sheet name="QUAL_90" sheetId="83" r:id="rId34"/>
-    <sheet name="QUAL_91" sheetId="84" r:id="rId35"/>
-    <sheet name="QUAL_92" sheetId="99" r:id="rId36"/>
-    <sheet name="QUAL_93" sheetId="85" r:id="rId37"/>
-    <sheet name="QUAL_94" sheetId="86" r:id="rId38"/>
-    <sheet name="QUAL_95" sheetId="100" r:id="rId39"/>
-    <sheet name="QUAL_96" sheetId="87" r:id="rId40"/>
-    <sheet name="QUAL_97" sheetId="88" r:id="rId41"/>
-    <sheet name="QUAL_98" sheetId="101" r:id="rId42"/>
-    <sheet name="QUAL_99" sheetId="89" r:id="rId43"/>
-    <sheet name="QUAL_100" sheetId="90" r:id="rId44"/>
-    <sheet name="QUAL_101" sheetId="102" r:id="rId45"/>
-    <sheet name="QUAL_102" sheetId="91" r:id="rId46"/>
-    <sheet name="QUAL_103" sheetId="92" r:id="rId47"/>
-    <sheet name="QUAL_104" sheetId="103" r:id="rId48"/>
-    <sheet name="QUAL_105" sheetId="93" r:id="rId49"/>
-    <sheet name="JSBG_7_PH-(表层样PH分级)" sheetId="1" r:id="rId50"/>
-    <sheet name="JSBG_8_PH" sheetId="58" r:id="rId51"/>
-    <sheet name="JSBG_10_OM-(表层样OM分级)" sheetId="2" r:id="rId52"/>
-    <sheet name="JSBG_11_OM" sheetId="59" r:id="rId53"/>
-    <sheet name="JSBG_16_TN-(表层样TN分级)" sheetId="5" r:id="rId54"/>
-    <sheet name="JSBG_17_TN" sheetId="60" r:id="rId55"/>
-    <sheet name="JSBG_19_TP-(表层样TP分级)" sheetId="6" r:id="rId56"/>
-    <sheet name="JSBG_20_TP" sheetId="61" r:id="rId57"/>
-    <sheet name="JSBG_22_TK-(表层样TK分级)" sheetId="7" r:id="rId58"/>
-    <sheet name="JSBG_23_TK" sheetId="62" r:id="rId59"/>
-    <sheet name="JSBG_25_AP-(表层样AP分级)" sheetId="8" r:id="rId60"/>
-    <sheet name="JSBG_26_AP" sheetId="63" r:id="rId61"/>
-    <sheet name="JSBG_28_AK-(表层样AK分级)" sheetId="9" r:id="rId62"/>
-    <sheet name="JSBG_29_AK" sheetId="64" r:id="rId63"/>
-    <sheet name="JSBG_31_AS1-(表层样AS1分级)" sheetId="10" r:id="rId64"/>
-    <sheet name="JSBG_32_AS1" sheetId="65" r:id="rId65"/>
-    <sheet name="JSBG_34_AFE-(表层样AFE分级)" sheetId="11" r:id="rId66"/>
-    <sheet name="JSBG_35_AFE" sheetId="66" r:id="rId67"/>
-    <sheet name="JSBG_37_AMN-(表层样AMN分级)" sheetId="12" r:id="rId68"/>
-    <sheet name="JSBG_38_AMN" sheetId="67" r:id="rId69"/>
-    <sheet name="JSBG_40_ACU-(表层样ACU分级)" sheetId="13" r:id="rId70"/>
-    <sheet name="JSBG_41_ACU" sheetId="68" r:id="rId71"/>
-    <sheet name="JSBG_43_AZN-(表层样AZN分级)" sheetId="14" r:id="rId72"/>
-    <sheet name="JSBG_44_AZN" sheetId="69" r:id="rId73"/>
-    <sheet name="JSBG_46_AB-(表层样AB分级)" sheetId="4" r:id="rId74"/>
-    <sheet name="JSBG_47_AB" sheetId="70" r:id="rId75"/>
-    <sheet name="JSBG_49_AMO-(表层样AMO分级)" sheetId="15" r:id="rId76"/>
-    <sheet name="JSBG_50_AMO" sheetId="71" r:id="rId77"/>
-    <sheet name="JSBG_53_GZCHD-(表层样GZCHD分级)" sheetId="16" r:id="rId78"/>
-    <sheet name="JSBG_54_GZCHD" sheetId="72" r:id="rId79"/>
-    <sheet name="TRSX_111_PH-(利用类型pH面积分级)" sheetId="3" r:id="rId80"/>
-    <sheet name="TRSX_112_PH-(街道PH面积分级)" sheetId="18" r:id="rId81"/>
-    <sheet name="TRSX_113_PH-(土类PH面积分级)" sheetId="19" r:id="rId82"/>
-    <sheet name="TRSX_114_CEC-(利用类型ECE面积分级)" sheetId="20" r:id="rId83"/>
-    <sheet name="TRSX_115_CEC-(街道ECE面积分级)" sheetId="21" r:id="rId84"/>
-    <sheet name="TRSX_116_CEC-(土类ECE面积分级)" sheetId="22" r:id="rId85"/>
-    <sheet name="TRSX_117_TRRZPJZ-(利用类型容重面积分级)" sheetId="23" r:id="rId86"/>
-    <sheet name="TRSX_118_TRRZPJZ-(街道容重面积分级)" sheetId="24" r:id="rId87"/>
-    <sheet name="TRSX_119_TRRZPJZ-(土类容重面积分级)" sheetId="25" r:id="rId88"/>
-    <sheet name="TRSX_120_GZCHD" sheetId="26" r:id="rId89"/>
-    <sheet name="TRSX_121_GZCHD" sheetId="27" r:id="rId90"/>
-    <sheet name="TRSX_122_GZCHD" sheetId="28" r:id="rId91"/>
-    <sheet name="TRSX_123_TRZD" sheetId="29" r:id="rId92"/>
-    <sheet name="TRSX_124_TRZD" sheetId="30" r:id="rId93"/>
-    <sheet name="TRSX_125_TRZD" sheetId="31" r:id="rId94"/>
-    <sheet name="TRSX_126_TRSL" sheetId="32" r:id="rId95"/>
-    <sheet name="TRSX_127_TRSL" sheetId="33" r:id="rId96"/>
-    <sheet name="TRSX_128_TRSL" sheetId="34" r:id="rId97"/>
-    <sheet name="TRSX_129_TRFSL" sheetId="35" r:id="rId98"/>
-    <sheet name="TRSX_130_TRFSL" sheetId="36" r:id="rId99"/>
-    <sheet name="TRSX_131_TRFSL" sheetId="37" r:id="rId100"/>
-    <sheet name="TRSX_132_TRNL" sheetId="38" r:id="rId101"/>
-    <sheet name="TRSX_133_TRNL" sheetId="39" r:id="rId102"/>
-    <sheet name="TRSX_134_TRNL" sheetId="40" r:id="rId103"/>
-    <sheet name="TRSX_135_OM-(利用类型OM面积分级)" sheetId="17" r:id="rId104"/>
-    <sheet name="TRSX_136_OM" sheetId="41" r:id="rId105"/>
-    <sheet name="TRSX_137_OM" sheetId="42" r:id="rId106"/>
-    <sheet name="TRSX_138_TN" sheetId="43" r:id="rId107"/>
-    <sheet name="TRSX_139_TN" sheetId="44" r:id="rId108"/>
-    <sheet name="TRSX_140_TN" sheetId="45" r:id="rId109"/>
-    <sheet name="TRSX_141_TP" sheetId="46" r:id="rId110"/>
-    <sheet name="TRSX_142_TP" sheetId="47" r:id="rId111"/>
-    <sheet name="TRSX_143_TP" sheetId="48" r:id="rId112"/>
-    <sheet name="TRSX_144_TK" sheetId="49" r:id="rId113"/>
-    <sheet name="TRSX_145_TK" sheetId="50" r:id="rId114"/>
-    <sheet name="TRSX_146_TK" sheetId="51" r:id="rId115"/>
-    <sheet name="TRSX_147_AP" sheetId="52" r:id="rId116"/>
-    <sheet name="TRSX_148_AP" sheetId="53" r:id="rId117"/>
-    <sheet name="TRSX_149_AP" sheetId="54" r:id="rId118"/>
-    <sheet name="TRSX_150_AK" sheetId="55" r:id="rId119"/>
-    <sheet name="TRSX_151_AK" sheetId="56" r:id="rId120"/>
-    <sheet name="TRSX_152_AK" sheetId="57" r:id="rId121"/>
+    <sheet name="SUITI_66" sheetId="73" r:id="rId5"/>
+    <sheet name="SUITI_67" sheetId="123" r:id="rId6"/>
+    <sheet name="SUITI_68" sheetId="124" r:id="rId7"/>
+    <sheet name="SUITI_69" sheetId="125" r:id="rId8"/>
+    <sheet name="SUITI_70" sheetId="126" r:id="rId9"/>
+    <sheet name="SUITI_56" sheetId="109" r:id="rId10"/>
+    <sheet name="SUITI_57" sheetId="110" r:id="rId11"/>
+    <sheet name="SUITI_58" sheetId="111" r:id="rId12"/>
+    <sheet name="SUITI_59" sheetId="112" r:id="rId13"/>
+    <sheet name="SUITI_60" sheetId="113" r:id="rId14"/>
+    <sheet name="SUITI_61" sheetId="114" r:id="rId15"/>
+    <sheet name="SUITI_164" sheetId="115" r:id="rId16"/>
+    <sheet name="SUITI_165" sheetId="116" r:id="rId17"/>
+    <sheet name="SUITI_166" sheetId="117" r:id="rId18"/>
+    <sheet name="SUITI_167" sheetId="118" r:id="rId19"/>
+    <sheet name="QUAL_75" sheetId="108" r:id="rId20"/>
+    <sheet name="QUAL_74" sheetId="107" r:id="rId21"/>
+    <sheet name="QUAL_73" sheetId="106" r:id="rId22"/>
+    <sheet name="QUAL_72" sheetId="105" r:id="rId23"/>
+    <sheet name="QUAL_76" sheetId="74" r:id="rId24"/>
+    <sheet name="QUAL_77" sheetId="94" r:id="rId25"/>
+    <sheet name="QUAL_78" sheetId="75" r:id="rId26"/>
+    <sheet name="QUAL_79" sheetId="76" r:id="rId27"/>
+    <sheet name="QUAL_80" sheetId="95" r:id="rId28"/>
+    <sheet name="QUAL_81" sheetId="77" r:id="rId29"/>
+    <sheet name="QUAL_82" sheetId="78" r:id="rId30"/>
+    <sheet name="QUAL_83" sheetId="96" r:id="rId31"/>
+    <sheet name="QUAL_84" sheetId="79" r:id="rId32"/>
+    <sheet name="QUAL_85" sheetId="80" r:id="rId33"/>
+    <sheet name="QUAL_86" sheetId="97" r:id="rId34"/>
+    <sheet name="QUAL_87" sheetId="81" r:id="rId35"/>
+    <sheet name="QUAL_88" sheetId="82" r:id="rId36"/>
+    <sheet name="QUAL_89" sheetId="98" r:id="rId37"/>
+    <sheet name="QUAL_90" sheetId="83" r:id="rId38"/>
+    <sheet name="QUAL_91" sheetId="84" r:id="rId39"/>
+    <sheet name="QUAL_92" sheetId="99" r:id="rId40"/>
+    <sheet name="QUAL_93" sheetId="85" r:id="rId41"/>
+    <sheet name="QUAL_94" sheetId="86" r:id="rId42"/>
+    <sheet name="QUAL_95" sheetId="100" r:id="rId43"/>
+    <sheet name="QUAL_96" sheetId="87" r:id="rId44"/>
+    <sheet name="QUAL_97" sheetId="88" r:id="rId45"/>
+    <sheet name="QUAL_98" sheetId="101" r:id="rId46"/>
+    <sheet name="QUAL_99" sheetId="89" r:id="rId47"/>
+    <sheet name="QUAL_100" sheetId="90" r:id="rId48"/>
+    <sheet name="QUAL_101" sheetId="102" r:id="rId49"/>
+    <sheet name="QUAL_102" sheetId="91" r:id="rId50"/>
+    <sheet name="QUAL_103" sheetId="92" r:id="rId51"/>
+    <sheet name="QUAL_104" sheetId="103" r:id="rId52"/>
+    <sheet name="QUAL_105" sheetId="93" r:id="rId53"/>
+    <sheet name="JSBG_7_PH-(表层样PH分级)" sheetId="1" r:id="rId54"/>
+    <sheet name="JSBG_8_PH" sheetId="58" r:id="rId55"/>
+    <sheet name="JSBG_10_OM-(表层样OM分级)" sheetId="2" r:id="rId56"/>
+    <sheet name="JSBG_11_OM" sheetId="59" r:id="rId57"/>
+    <sheet name="JSBG_16_TN-(表层样TN分级)" sheetId="5" r:id="rId58"/>
+    <sheet name="JSBG_17_TN" sheetId="60" r:id="rId59"/>
+    <sheet name="JSBG_19_TP-(表层样TP分级)" sheetId="6" r:id="rId60"/>
+    <sheet name="JSBG_20_TP" sheetId="61" r:id="rId61"/>
+    <sheet name="JSBG_22_TK-(表层样TK分级)" sheetId="7" r:id="rId62"/>
+    <sheet name="JSBG_23_TK" sheetId="62" r:id="rId63"/>
+    <sheet name="JSBG_25_AP-(表层样AP分级)" sheetId="8" r:id="rId64"/>
+    <sheet name="JSBG_26_AP" sheetId="63" r:id="rId65"/>
+    <sheet name="JSBG_28_AK-(表层样AK分级)" sheetId="9" r:id="rId66"/>
+    <sheet name="JSBG_29_AK" sheetId="64" r:id="rId67"/>
+    <sheet name="JSBG_31_AS1-(表层样AS1分级)" sheetId="10" r:id="rId68"/>
+    <sheet name="JSBG_32_AS1" sheetId="65" r:id="rId69"/>
+    <sheet name="JSBG_34_AFE-(表层样AFE分级)" sheetId="11" r:id="rId70"/>
+    <sheet name="JSBG_35_AFE" sheetId="66" r:id="rId71"/>
+    <sheet name="JSBG_37_AMN-(表层样AMN分级)" sheetId="12" r:id="rId72"/>
+    <sheet name="JSBG_38_AMN" sheetId="67" r:id="rId73"/>
+    <sheet name="JSBG_40_ACU-(表层样ACU分级)" sheetId="13" r:id="rId74"/>
+    <sheet name="JSBG_41_ACU" sheetId="68" r:id="rId75"/>
+    <sheet name="JSBG_43_AZN-(表层样AZN分级)" sheetId="14" r:id="rId76"/>
+    <sheet name="JSBG_44_AZN" sheetId="69" r:id="rId77"/>
+    <sheet name="JSBG_46_AB-(表层样AB分级)" sheetId="4" r:id="rId78"/>
+    <sheet name="JSBG_47_AB" sheetId="70" r:id="rId79"/>
+    <sheet name="JSBG_49_AMO-(表层样AMO分级)" sheetId="15" r:id="rId80"/>
+    <sheet name="JSBG_50_AMO" sheetId="71" r:id="rId81"/>
+    <sheet name="JSBG_53_GZCHD-(表层样GZCHD分级)" sheetId="16" r:id="rId82"/>
+    <sheet name="JSBG_54_GZCHD" sheetId="72" r:id="rId83"/>
+    <sheet name="TRSX_111_PH-(利用类型pH面积分级)" sheetId="3" r:id="rId84"/>
+    <sheet name="TRSX_112_PH-(街道PH面积分级)" sheetId="18" r:id="rId85"/>
+    <sheet name="TRSX_113_PH-(土类PH面积分级)" sheetId="19" r:id="rId86"/>
+    <sheet name="TRSX_114_CEC-(利用类型ECE面积分级)" sheetId="20" r:id="rId87"/>
+    <sheet name="TRSX_115_CEC-(街道ECE面积分级)" sheetId="21" r:id="rId88"/>
+    <sheet name="TRSX_116_CEC-(土类ECE面积分级)" sheetId="22" r:id="rId89"/>
+    <sheet name="TRSX_117_TRRZPJZ-(利用类型容重面积分级)" sheetId="23" r:id="rId90"/>
+    <sheet name="TRSX_118_TRRZPJZ-(街道容重面积分级)" sheetId="24" r:id="rId91"/>
+    <sheet name="TRSX_119_TRRZPJZ-(土类容重面积分级)" sheetId="25" r:id="rId92"/>
+    <sheet name="TRSX_120_GZCHD" sheetId="26" r:id="rId93"/>
+    <sheet name="TRSX_121_GZCHD" sheetId="27" r:id="rId94"/>
+    <sheet name="TRSX_122_GZCHD" sheetId="28" r:id="rId95"/>
+    <sheet name="TRSX_123_TRZD" sheetId="29" r:id="rId96"/>
+    <sheet name="TRSX_124_TRZD" sheetId="30" r:id="rId97"/>
+    <sheet name="TRSX_125_TRZD" sheetId="31" r:id="rId98"/>
+    <sheet name="TRSX_126_TRSL" sheetId="32" r:id="rId99"/>
+    <sheet name="TRSX_127_TRSL" sheetId="33" r:id="rId100"/>
+    <sheet name="TRSX_128_TRSL" sheetId="34" r:id="rId101"/>
+    <sheet name="TRSX_129_TRFSL" sheetId="35" r:id="rId102"/>
+    <sheet name="TRSX_130_TRFSL" sheetId="36" r:id="rId103"/>
+    <sheet name="TRSX_131_TRFSL" sheetId="37" r:id="rId104"/>
+    <sheet name="TRSX_132_TRNL" sheetId="38" r:id="rId105"/>
+    <sheet name="TRSX_133_TRNL" sheetId="39" r:id="rId106"/>
+    <sheet name="TRSX_134_TRNL" sheetId="40" r:id="rId107"/>
+    <sheet name="TRSX_135_OM-(利用类型OM面积分级)" sheetId="17" r:id="rId108"/>
+    <sheet name="TRSX_136_OM" sheetId="41" r:id="rId109"/>
+    <sheet name="TRSX_137_OM" sheetId="42" r:id="rId110"/>
+    <sheet name="TRSX_138_TN" sheetId="43" r:id="rId111"/>
+    <sheet name="TRSX_139_TN" sheetId="44" r:id="rId112"/>
+    <sheet name="TRSX_140_TN" sheetId="45" r:id="rId113"/>
+    <sheet name="TRSX_141_TP" sheetId="46" r:id="rId114"/>
+    <sheet name="TRSX_142_TP" sheetId="47" r:id="rId115"/>
+    <sheet name="TRSX_143_TP" sheetId="48" r:id="rId116"/>
+    <sheet name="TRSX_144_TK" sheetId="49" r:id="rId117"/>
+    <sheet name="TRSX_145_TK" sheetId="50" r:id="rId118"/>
+    <sheet name="TRSX_146_TK" sheetId="51" r:id="rId119"/>
+    <sheet name="TRSX_147_AP" sheetId="52" r:id="rId120"/>
+    <sheet name="TRSX_148_AP" sheetId="53" r:id="rId121"/>
+    <sheet name="TRSX_149_AP" sheetId="54" r:id="rId122"/>
+    <sheet name="TRSX_150_AK" sheetId="55" r:id="rId123"/>
+    <sheet name="TRSX_151_AK" sheetId="56" r:id="rId124"/>
+    <sheet name="TRSX_152_AK" sheetId="57" r:id="rId125"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="387">
   <si>
     <t>XX县适宜类评价面积表</t>
   </si>
@@ -237,6 +241,18 @@
   </si>
   <si>
     <t>草地</t>
+  </si>
+  <si>
+    <t>XX县耕地-适宜类面积错配表</t>
+  </si>
+  <si>
+    <t>XX县园地-适宜类面积错配表</t>
+  </si>
+  <si>
+    <t>XX县林地-适宜类面积错配表</t>
+  </si>
+  <si>
+    <t>XX县草地-适宜类面积错配表</t>
   </si>
   <si>
     <t>XX县各乡镇（街道）土壤坡度等级面积分布表</t>
@@ -2856,14 +2872,14 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2880,7 +2896,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -2895,22 +2911,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -2929,265 +2945,17 @@
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3197,40 +2965,550 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="C3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>356</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="D3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>357</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="E3" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>358</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3293,7 +3571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3306,7 +3584,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3319,37 +3597,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3362,282 +3640,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -3651,7 +3653,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3668,7 +3670,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -3683,22 +3685,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -3720,14 +3722,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3737,40 +3739,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>359</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>199</v>
+        <v>360</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>200</v>
+        <v>361</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>201</v>
+        <v>362</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>202</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3796,7 +3798,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3806,40 +3808,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>367</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3875,40 +3877,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>367</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3944,40 +3946,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>367</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>370</v>
+        <v>194</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>371</v>
+        <v>195</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>372</v>
+        <v>196</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>359</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4003,7 +4005,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4013,40 +4015,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>370</v>
+        <v>203</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>371</v>
+        <v>204</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>372</v>
+        <v>205</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>359</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4072,7 +4074,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4082,40 +4084,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>370</v>
+        <v>203</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>371</v>
+        <v>204</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>372</v>
+        <v>205</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>359</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4141,7 +4143,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4151,40 +4153,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>376</v>
+        <v>203</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>377</v>
+        <v>204</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>372</v>
+        <v>205</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>359</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4210,7 +4212,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4220,40 +4222,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4279,7 +4281,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4289,40 +4291,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4348,7 +4350,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4358,40 +4360,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>374</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>225</v>
+        <v>375</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>226</v>
+        <v>376</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>227</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4410,14 +4412,14 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4434,7 +4436,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -4449,22 +4451,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -4493,7 +4495,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4503,40 +4505,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>380</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>225</v>
+        <v>381</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>226</v>
+        <v>376</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>227</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4555,7 +4557,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -4572,40 +4574,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>380</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>225</v>
+        <v>381</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>226</v>
+        <v>376</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>227</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4618,20 +4620,296 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+      <selection activeCell="A1" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4648,7 +4926,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -4663,22 +4941,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -4700,14 +4978,14 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I3"/>
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4724,7 +5002,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -4739,22 +5017,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -4773,6 +5051,310 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4786,7 +5368,91 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="20.3461538461538" customWidth="1"/>
+    <col min="2" max="3" width="20.8269230769231" customWidth="1"/>
+    <col min="4" max="4" width="15.5384615384615" customWidth="1"/>
+    <col min="5" max="5" width="16.6538461538462" customWidth="1"/>
+    <col min="6" max="6" width="14.2596153846154" customWidth="1"/>
+    <col min="7" max="7" width="15.7019230769231" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="31" spans="1:9">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -4806,7 +5472,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4818,16 +5484,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4851,7 +5517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M3"/>
@@ -4864,7 +5530,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4885,7 +5551,7 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -4904,34 +5570,34 @@
       <c r="A3" s="26"/>
       <c r="B3" s="27"/>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M3" s="31"/>
     </row>
@@ -4947,7 +5613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
@@ -4965,7 +5631,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4975,10 +5641,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4990,7 +5656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F7"/>
@@ -5003,7 +5669,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5013,22 +5679,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5053,22 +5719,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5100,91 +5766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
-  <cols>
-    <col min="1" max="1" width="20.3461538461538" customWidth="1"/>
-    <col min="2" max="3" width="20.8269230769231" customWidth="1"/>
-    <col min="4" max="4" width="15.5384615384615" customWidth="1"/>
-    <col min="5" max="5" width="16.6538461538462" customWidth="1"/>
-    <col min="6" max="6" width="14.2596153846154" customWidth="1"/>
-    <col min="7" max="7" width="15.7019230769231" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="31" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A2:B3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -5200,7 +5782,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -5220,7 +5802,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -5237,7 +5819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -5256,7 +5838,7 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5268,16 +5850,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5324,7 +5906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -5337,7 +5919,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5355,7 +5937,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5371,7 +5953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -5384,7 +5966,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -5404,7 +5986,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -5421,7 +6003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -5440,7 +6022,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5452,16 +6034,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5508,7 +6090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -5524,7 +6106,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5542,7 +6124,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5558,240 +6140,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -5863,17 +6217,67 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5885,16 +6289,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5941,7 +6345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -5954,7 +6358,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5972,7 +6376,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5988,20 +6392,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6021,7 +6425,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6038,7 +6442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -6051,7 +6455,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6063,16 +6467,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6119,7 +6523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -6132,7 +6536,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6150,7 +6554,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6166,20 +6570,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6199,7 +6603,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6216,20 +6620,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A1" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6241,16 +6645,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6297,7 +6701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -6310,7 +6714,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6328,7 +6732,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6344,7 +6748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6357,7 +6761,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6377,7 +6781,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6394,41 +6798,107 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6475,91 +6945,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="1" spans="1:7">
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A2:B3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
@@ -6572,7 +6976,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6588,20 +6992,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="A1" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6621,7 +7025,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6638,20 +7042,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E7"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6663,16 +7067,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6719,20 +7123,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6750,7 +7154,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6766,20 +7170,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6799,7 +7203,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6816,7 +7220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -6829,7 +7233,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6841,16 +7245,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6897,20 +7301,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A1" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6928,7 +7332,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6944,7 +7348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6957,7 +7361,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -6977,7 +7381,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6994,20 +7398,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A1" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7019,16 +7423,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7075,60 +7479,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -7482,6 +7839,231 @@
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7497,7 +8079,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -7507,30 +8089,30 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -7539,7 +8121,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B4" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -7552,7 +8134,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B5" s="15" t="str">
         <f>SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -7585,7 +8167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -7598,7 +8180,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7611,19 +8193,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7659,7 +8241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -7678,7 +8260,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -7688,30 +8270,30 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="14" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -7720,7 +8302,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="14" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B4" s="15" t="str">
         <f t="shared" ref="B4:B6" si="0">SUBSTITUTE(ADDRESS(ROW(),COLUMN()),"$","")</f>
@@ -7733,7 +8315,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B5" s="15" t="str">
         <f t="shared" si="0"/>
@@ -7766,7 +8348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -7779,7 +8361,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7792,19 +8374,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7840,7 +8422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -7853,7 +8435,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7863,47 +8445,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -7913,7 +8495,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -7940,7 +8522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -7953,7 +8535,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7966,19 +8548,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8014,70 +8596,143 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -8087,7 +8742,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8114,7 +8769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -8127,7 +8782,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8140,19 +8795,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8196,7 +8851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -8209,7 +8864,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8219,47 +8874,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -8269,7 +8924,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8296,7 +8951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -8309,7 +8964,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8322,19 +8977,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8370,96 +9025,120 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" spans="1:9">
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A2:B3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8467,124 +9146,24 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8620,7 +9199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -8633,7 +9212,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8643,47 +9222,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -8693,7 +9272,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8720,7 +9299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -8733,7 +9312,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8746,19 +9325,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8794,7 +9373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -8807,7 +9386,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8817,47 +9396,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -8867,7 +9446,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8894,7 +9473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -8907,7 +9486,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8920,19 +9499,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8968,70 +9547,143 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9041,7 +9693,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9068,7 +9720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -9081,7 +9733,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9094,19 +9746,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9142,7 +9794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -9155,7 +9807,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9165,47 +9817,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9215,7 +9867,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9242,7 +9894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -9255,7 +9907,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9268,19 +9920,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9316,96 +9968,120 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" spans="1:9">
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A2:B3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9413,124 +10089,24 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
     <row r="2" ht="31" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9566,7 +10142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -9579,7 +10155,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9589,47 +10165,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9639,7 +10215,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9666,7 +10242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -9679,7 +10255,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9692,19 +10268,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9740,7 +10316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -9753,7 +10329,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9763,47 +10339,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9813,7 +10389,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9840,7 +10416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -9853,7 +10429,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9866,19 +10442,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9914,70 +10490,143 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -9987,7 +10636,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10014,7 +10663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F5"/>
@@ -10027,7 +10676,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10040,19 +10689,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10088,7 +10737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -10101,7 +10750,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10111,47 +10760,47 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -10161,7 +10810,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10188,7 +10837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -10204,7 +10853,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10217,19 +10866,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10273,83 +10922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A2:B3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -10368,7 +10941,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10378,40 +10951,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -10424,7 +10997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -10437,7 +11010,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10450,37 +11023,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -10493,7 +11066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -10506,7 +11079,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10516,40 +11089,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -10562,7 +11135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -10582,7 +11155,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10592,40 +11165,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -10638,7 +11211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -10651,7 +11224,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10664,37 +11237,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -10707,7 +11280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -10720,7 +11293,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10730,40 +11303,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -10776,7 +11349,80 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -10794,7 +11440,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10804,40 +11450,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -10850,7 +11496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -10863,7 +11509,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10876,37 +11522,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -10919,7 +11565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -10932,7 +11578,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10942,40 +11588,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" ht="61" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -10988,7 +11634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -11001,7 +11647,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11011,40 +11657,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -11057,83 +11703,76 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" spans="1:9">
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>330</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="33" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
+      <c r="B2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>326</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>327</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>328</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A2:B3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -11146,7 +11785,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11156,40 +11795,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -11202,76 +11841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G8"/>
@@ -11284,7 +11854,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -11295,25 +11865,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11380,7 +11950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G3"/>
@@ -11393,7 +11963,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -11407,22 +11977,22 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -11434,7 +12004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G3"/>
@@ -11447,7 +12017,7 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -11458,25 +12028,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -11488,7 +12058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -11501,7 +12071,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11511,40 +12081,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -11555,266 +12125,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/config/cfg_template.xlsx
+++ b/config/cfg_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25740" windowHeight="10460" firstSheet="3" activeTab="8"/>
+    <workbookView windowWidth="25740" windowHeight="10460" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SUITI_62" sheetId="119" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="389">
   <si>
     <t>XX县适宜类评价面积表</t>
   </si>
@@ -189,6 +189,13 @@
   </si>
   <si>
     <t>四级宜林</t>
+  </si>
+  <si>
+    <t>XX县土壤类型（亚类）适宜类评价分布表</t>
+  </si>
+  <si>
+    <t>土壤类型
+（亚类）</t>
   </si>
   <si>
     <t>XX县土壤农业利用适宜程度评价面积表</t>
@@ -2879,7 +2886,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2896,7 +2903,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -2911,22 +2918,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -2955,7 +2962,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2968,37 +2975,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3024,7 +3031,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3034,40 +3041,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3093,7 +3100,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3102,34 +3109,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3155,7 +3162,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3167,31 +3174,31 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3224,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3226,34 +3233,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3279,7 +3286,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3288,34 +3295,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3341,7 +3348,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3353,31 +3360,31 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3403,7 +3410,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3412,34 +3419,34 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3465,7 +3472,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3475,45 +3482,45 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3523,7 +3530,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3533,7 +3540,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3543,7 +3550,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -3584,7 +3591,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3597,37 +3604,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -3653,7 +3660,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3670,7 +3677,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -3685,22 +3692,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -3729,7 +3736,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3739,40 +3746,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -3798,7 +3805,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3808,40 +3815,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3867,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3880,37 +3887,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3936,7 +3943,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3946,40 +3953,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4005,7 +4012,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4015,40 +4022,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4074,7 +4081,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4087,37 +4094,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4143,7 +4150,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4153,40 +4160,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4212,7 +4219,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4222,40 +4229,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4281,7 +4288,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4294,37 +4301,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4350,7 +4357,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4360,40 +4367,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4419,7 +4426,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4436,7 +4443,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -4451,22 +4458,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -4495,7 +4502,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4505,40 +4512,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4564,7 +4571,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4577,37 +4584,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4633,7 +4640,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4643,40 +4650,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -4702,7 +4709,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4712,40 +4719,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +4778,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4784,37 +4791,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4840,7 +4847,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4850,40 +4857,40 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4909,7 +4916,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4926,7 +4933,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -4941,22 +4948,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -4985,7 +4992,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5002,7 +5009,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -5017,22 +5024,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -5061,7 +5068,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5078,7 +5085,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -5093,22 +5100,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -5137,7 +5144,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5154,7 +5161,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -5169,22 +5176,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -5213,7 +5220,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5230,7 +5237,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -5245,22 +5252,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -5289,7 +5296,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5306,7 +5313,7 @@
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -5321,22 +5328,22 @@
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I3" s="31"/>
     </row>
@@ -5472,7 +5479,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5484,16 +5491,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5530,7 +5537,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5551,7 +5558,7 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -5570,34 +5577,34 @@
       <c r="A3" s="26"/>
       <c r="B3" s="27"/>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M3" s="31"/>
     </row>
@@ -5631,7 +5638,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5641,10 +5648,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5669,7 +5676,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5679,27 +5686,27 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5719,27 +5726,27 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5782,7 +5789,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -5802,7 +5809,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -5838,7 +5845,7 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5850,16 +5857,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5919,7 +5926,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5937,7 +5944,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5966,7 +5973,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -5986,7 +5993,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -6022,7 +6029,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6034,16 +6041,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6106,7 +6113,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6124,7 +6131,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6143,13 +6150,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="20.3461538461538" customWidth="1"/>
     <col min="2" max="3" width="20.8269230769231" customWidth="1"/>
@@ -6159,1340 +6166,9 @@
     <col min="7" max="7" width="15.7019230769231" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A2:B3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A2:B3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7501,38 +6177,1379 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="31" spans="1:9">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="40" t="s">
-        <v>24</v>
+      